--- a/JupyterNotebooks/AveragedIntensities-Exp/TRIP780A.xlsx
+++ b/JupyterNotebooks/AveragedIntensities-Exp/TRIP780A.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>HKL</t>
   </si>
   <si>
     <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Bruker</t>
   </si>
   <si>
     <t>ND Single</t>
@@ -572,7 +575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V48"/>
+  <dimension ref="A1:V49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -651,64 +654,64 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="S2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="T2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="U2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="V2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -719,64 +722,64 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9136388888888889</v>
+        <v>0.9159005763688761</v>
       </c>
       <c r="D3">
-        <v>0.9123611111111111</v>
+        <v>0.9169452449567723</v>
       </c>
       <c r="E3">
-        <v>1.148944444444445</v>
+        <v>1.130547550432277</v>
       </c>
       <c r="F3">
-        <v>0.9903333333333333</v>
+        <v>0.9886887608069165</v>
       </c>
       <c r="G3">
-        <v>0.9136388888888889</v>
+        <v>0.9159005763688761</v>
       </c>
       <c r="H3">
-        <v>0.9123611111111111</v>
+        <v>0.9169452449567723</v>
       </c>
       <c r="I3">
-        <v>1.006166666666667</v>
+        <v>1.007110951008646</v>
       </c>
       <c r="J3">
-        <v>1.010722222222222</v>
+        <v>1.012161383285303</v>
       </c>
       <c r="K3">
-        <v>0.9698888888888889</v>
+        <v>0.9695172910662824</v>
       </c>
       <c r="L3">
-        <v>0.9604722222222222</v>
+        <v>0.9601801152737752</v>
       </c>
       <c r="M3">
-        <v>0.9135277777777778</v>
+        <v>0.915850144092219</v>
       </c>
       <c r="N3">
-        <v>0.9136388888888889</v>
+        <v>0.9159005763688761</v>
       </c>
       <c r="O3">
-        <v>1.030652777777778</v>
+        <v>1.023746397694524</v>
       </c>
       <c r="P3">
-        <v>1.069638888888889</v>
+        <v>1.059618155619596</v>
       </c>
       <c r="Q3">
-        <v>0.9916481481481482</v>
+        <v>0.9877977905859749</v>
       </c>
       <c r="R3">
-        <v>1.017212962962963</v>
+        <v>1.012060518731988</v>
       </c>
       <c r="S3">
-        <v>0.9916481481481482</v>
+        <v>0.9877977905859749</v>
       </c>
       <c r="T3">
-        <v>0.9913194444444444</v>
+        <v>0.9880205331412103</v>
       </c>
       <c r="U3">
-        <v>0.9757833333333334</v>
+        <v>0.9735965417867435</v>
       </c>
       <c r="V3">
-        <v>0.9890659722222223</v>
+        <v>0.9876314841498559</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -787,64 +790,64 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.37</v>
+        <v>1.003029619119585</v>
       </c>
       <c r="D4">
-        <v>0.43</v>
+        <v>0.9947654188920083</v>
       </c>
       <c r="E4">
-        <v>2.31</v>
+        <v>0.9845784876241402</v>
       </c>
       <c r="F4">
-        <v>1.02</v>
+        <v>0.9915779226838684</v>
       </c>
       <c r="G4">
-        <v>0.37</v>
+        <v>1.003029619119585</v>
       </c>
       <c r="H4">
-        <v>0.43</v>
+        <v>0.9947654188920083</v>
       </c>
       <c r="I4">
-        <v>1.07</v>
+        <v>0.9849130991572846</v>
       </c>
       <c r="J4">
-        <v>1.14</v>
+        <v>0.9836279295444869</v>
       </c>
       <c r="K4">
-        <v>0.8100000000000001</v>
+        <v>0.9939897569846911</v>
       </c>
       <c r="L4">
-        <v>0.79</v>
+        <v>0.9907050418637098</v>
       </c>
       <c r="M4">
-        <v>0.37</v>
+        <v>1.002960254957735</v>
       </c>
       <c r="N4">
-        <v>0.37</v>
+        <v>1.003029619119585</v>
       </c>
       <c r="O4">
-        <v>1.37</v>
+        <v>0.9896719532580742</v>
       </c>
       <c r="P4">
-        <v>1.665</v>
+        <v>0.9880782051540042</v>
       </c>
       <c r="Q4">
-        <v>1.036666666666667</v>
+        <v>0.9941245085452444</v>
       </c>
       <c r="R4">
-        <v>1.253333333333333</v>
+        <v>0.9903072764000056</v>
       </c>
       <c r="S4">
-        <v>1.036666666666667</v>
+        <v>0.9941245085452445</v>
       </c>
       <c r="T4">
-        <v>1.0325</v>
+        <v>0.9934878620799005</v>
       </c>
       <c r="U4">
-        <v>0.9000000000000001</v>
+        <v>0.9953962134878374</v>
       </c>
       <c r="V4">
-        <v>0.9924999999999999</v>
+        <v>0.9908984094837218</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -855,64 +858,64 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.47</v>
+        <v>0.37</v>
       </c>
       <c r="D5">
-        <v>0.7</v>
+        <v>0.43</v>
       </c>
       <c r="E5">
+        <v>2.31</v>
+      </c>
+      <c r="F5">
+        <v>1.02</v>
+      </c>
+      <c r="G5">
+        <v>0.37</v>
+      </c>
+      <c r="H5">
+        <v>0.43</v>
+      </c>
+      <c r="I5">
         <v>1.07</v>
       </c>
-      <c r="F5">
-        <v>0.8</v>
-      </c>
-      <c r="G5">
-        <v>1.47</v>
-      </c>
-      <c r="H5">
-        <v>0.7</v>
-      </c>
-      <c r="I5">
-        <v>1.27</v>
-      </c>
       <c r="J5">
-        <v>0.87</v>
+        <v>1.14</v>
       </c>
       <c r="K5">
-        <v>1.05</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="L5">
-        <v>0.65</v>
+        <v>0.79</v>
       </c>
       <c r="M5">
-        <v>1.46</v>
+        <v>0.37</v>
       </c>
       <c r="N5">
-        <v>1.47</v>
+        <v>0.37</v>
       </c>
       <c r="O5">
-        <v>0.885</v>
+        <v>1.37</v>
       </c>
       <c r="P5">
-        <v>0.9350000000000001</v>
+        <v>1.665</v>
       </c>
       <c r="Q5">
-        <v>1.08</v>
+        <v>1.036666666666667</v>
       </c>
       <c r="R5">
-        <v>0.8566666666666668</v>
+        <v>1.253333333333333</v>
       </c>
       <c r="S5">
-        <v>1.08</v>
+        <v>1.036666666666667</v>
       </c>
       <c r="T5">
-        <v>1.01</v>
+        <v>1.0325</v>
       </c>
       <c r="U5">
-        <v>1.102</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="V5">
-        <v>0.9850000000000001</v>
+        <v>0.9924999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -923,64 +926,64 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>2.52</v>
+        <v>1.47</v>
       </c>
       <c r="D6">
-        <v>1.44</v>
+        <v>0.7</v>
       </c>
       <c r="E6">
-        <v>0.43</v>
+        <v>1.07</v>
       </c>
       <c r="F6">
-        <v>1.22</v>
+        <v>0.8</v>
       </c>
       <c r="G6">
-        <v>2.52</v>
+        <v>1.47</v>
       </c>
       <c r="H6">
-        <v>1.44</v>
+        <v>0.7</v>
       </c>
       <c r="I6">
-        <v>0.61</v>
+        <v>1.27</v>
       </c>
       <c r="J6">
-        <v>0.48</v>
+        <v>0.87</v>
       </c>
       <c r="K6">
-        <v>1.61</v>
+        <v>1.05</v>
       </c>
       <c r="L6">
-        <v>1.12</v>
+        <v>0.65</v>
       </c>
       <c r="M6">
-        <v>2.52</v>
+        <v>1.46</v>
       </c>
       <c r="N6">
-        <v>2.52</v>
+        <v>1.47</v>
       </c>
       <c r="O6">
-        <v>0.9349999999999999</v>
+        <v>0.885</v>
       </c>
       <c r="P6">
-        <v>0.825</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="Q6">
-        <v>1.463333333333333</v>
+        <v>1.08</v>
       </c>
       <c r="R6">
-        <v>1.03</v>
+        <v>0.8566666666666668</v>
       </c>
       <c r="S6">
-        <v>1.463333333333333</v>
+        <v>1.08</v>
       </c>
       <c r="T6">
-        <v>1.4025</v>
+        <v>1.01</v>
       </c>
       <c r="U6">
-        <v>1.626</v>
+        <v>1.102</v>
       </c>
       <c r="V6">
-        <v>1.17875</v>
+        <v>0.9850000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -991,64 +994,64 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.44</v>
+        <v>2.52</v>
       </c>
       <c r="D7">
-        <v>0.37</v>
+        <v>1.44</v>
       </c>
       <c r="E7">
-        <v>2.8</v>
+        <v>0.43</v>
       </c>
       <c r="F7">
-        <v>1.02</v>
+        <v>1.22</v>
       </c>
       <c r="G7">
-        <v>0.44</v>
+        <v>2.52</v>
       </c>
       <c r="H7">
-        <v>0.37</v>
+        <v>1.44</v>
       </c>
       <c r="I7">
-        <v>1.07</v>
+        <v>0.61</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0.48</v>
       </c>
       <c r="K7">
-        <v>0.83</v>
+        <v>1.61</v>
       </c>
       <c r="L7">
-        <v>0.65</v>
+        <v>1.12</v>
       </c>
       <c r="M7">
-        <v>0.44</v>
+        <v>2.52</v>
       </c>
       <c r="N7">
-        <v>0.44</v>
+        <v>2.52</v>
       </c>
       <c r="O7">
-        <v>1.585</v>
+        <v>0.9349999999999999</v>
       </c>
       <c r="P7">
-        <v>1.91</v>
+        <v>0.825</v>
       </c>
       <c r="Q7">
-        <v>1.203333333333333</v>
+        <v>1.463333333333333</v>
       </c>
       <c r="R7">
-        <v>1.396666666666667</v>
+        <v>1.03</v>
       </c>
       <c r="S7">
-        <v>1.203333333333333</v>
+        <v>1.463333333333333</v>
       </c>
       <c r="T7">
-        <v>1.1575</v>
+        <v>1.4025</v>
       </c>
       <c r="U7">
-        <v>1.014</v>
+        <v>1.626</v>
       </c>
       <c r="V7">
-        <v>1.0225</v>
+        <v>1.17875</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -1059,64 +1062,64 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.345479452054795</v>
+        <v>0.44</v>
       </c>
       <c r="D8">
-        <v>1.125479452054795</v>
+        <v>0.37</v>
       </c>
       <c r="E8">
-        <v>0.7931506849315069</v>
+        <v>2.8</v>
       </c>
       <c r="F8">
-        <v>1.033424657534247</v>
+        <v>1.02</v>
       </c>
       <c r="G8">
-        <v>1.345479452054795</v>
+        <v>0.44</v>
       </c>
       <c r="H8">
-        <v>1.125479452054795</v>
+        <v>0.37</v>
       </c>
       <c r="I8">
-        <v>0.8963013698630137</v>
+        <v>1.07</v>
       </c>
       <c r="J8">
-        <v>0.8515068493150685</v>
+        <v>1</v>
       </c>
       <c r="K8">
-        <v>1.115753424657534</v>
+        <v>0.83</v>
       </c>
       <c r="L8">
-        <v>1.044794520547945</v>
+        <v>0.65</v>
       </c>
       <c r="M8">
-        <v>1.344794520547945</v>
+        <v>0.44</v>
       </c>
       <c r="N8">
-        <v>1.345479452054795</v>
+        <v>0.44</v>
       </c>
       <c r="O8">
-        <v>0.9593150684931507</v>
+        <v>1.585</v>
       </c>
       <c r="P8">
-        <v>0.9132876712328767</v>
+        <v>1.91</v>
       </c>
       <c r="Q8">
-        <v>1.088036529680365</v>
+        <v>1.203333333333333</v>
       </c>
       <c r="R8">
-        <v>0.9840182648401826</v>
+        <v>1.396666666666667</v>
       </c>
       <c r="S8">
-        <v>1.088036529680365</v>
+        <v>1.203333333333333</v>
       </c>
       <c r="T8">
-        <v>1.074383561643836</v>
+        <v>1.1575</v>
       </c>
       <c r="U8">
-        <v>1.128602739726027</v>
+        <v>1.014</v>
       </c>
       <c r="V8">
-        <v>1.025736301369863</v>
+        <v>1.0225</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -1127,64 +1130,64 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.112105263157895</v>
+        <v>1.345479452054795</v>
       </c>
       <c r="D9">
-        <v>0.8242105263157895</v>
+        <v>1.125479452054795</v>
       </c>
       <c r="E9">
-        <v>1.10421052631579</v>
+        <v>0.7931506849315069</v>
       </c>
       <c r="F9">
-        <v>0.9257894736842105</v>
+        <v>1.033424657534247</v>
       </c>
       <c r="G9">
-        <v>1.112105263157895</v>
+        <v>1.345479452054795</v>
       </c>
       <c r="H9">
-        <v>0.8242105263157895</v>
+        <v>1.125479452054795</v>
       </c>
       <c r="I9">
-        <v>1.067368421052632</v>
+        <v>0.8963013698630137</v>
       </c>
       <c r="J9">
-        <v>0.9489473684210527</v>
+        <v>0.8515068493150685</v>
       </c>
       <c r="K9">
-        <v>1.026315789473684</v>
+        <v>1.115753424657534</v>
       </c>
       <c r="L9">
-        <v>0.8589473684210527</v>
+        <v>1.044794520547945</v>
       </c>
       <c r="M9">
-        <v>1.112105263157895</v>
+        <v>1.344794520547945</v>
       </c>
       <c r="N9">
-        <v>1.112105263157895</v>
+        <v>1.345479452054795</v>
       </c>
       <c r="O9">
-        <v>0.9642105263157895</v>
+        <v>0.9593150684931507</v>
       </c>
       <c r="P9">
-        <v>1.015</v>
+        <v>0.9132876712328767</v>
       </c>
       <c r="Q9">
-        <v>1.013508771929825</v>
+        <v>1.088036529680365</v>
       </c>
       <c r="R9">
-        <v>0.9514035087719298</v>
+        <v>0.9840182648401826</v>
       </c>
       <c r="S9">
-        <v>1.013508771929825</v>
+        <v>1.088036529680365</v>
       </c>
       <c r="T9">
-        <v>0.991578947368421</v>
+        <v>1.074383561643836</v>
       </c>
       <c r="U9">
-        <v>1.015684210526316</v>
+        <v>1.128602739726027</v>
       </c>
       <c r="V9">
-        <v>0.9834868421052632</v>
+        <v>1.025736301369863</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -1195,64 +1198,64 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.8015789473684211</v>
+        <v>1.112105263157895</v>
       </c>
       <c r="D10">
-        <v>0.7331578947368421</v>
+        <v>0.8242105263157895</v>
       </c>
       <c r="E10">
-        <v>1.424736842105263</v>
+        <v>1.10421052631579</v>
       </c>
       <c r="F10">
-        <v>0.9921052631578947</v>
+        <v>0.9257894736842105</v>
       </c>
       <c r="G10">
-        <v>0.8015789473684211</v>
+        <v>1.112105263157895</v>
       </c>
       <c r="H10">
-        <v>0.7331578947368421</v>
+        <v>0.8242105263157895</v>
       </c>
       <c r="I10">
-        <v>1.053684210526316</v>
+        <v>1.067368421052632</v>
       </c>
       <c r="J10">
-        <v>1.035789473684211</v>
+        <v>0.9489473684210527</v>
       </c>
       <c r="K10">
-        <v>0.9410526315789474</v>
+        <v>1.026315789473684</v>
       </c>
       <c r="L10">
-        <v>0.8478947368421053</v>
+        <v>0.8589473684210527</v>
       </c>
       <c r="M10">
-        <v>0.8010526315789473</v>
+        <v>1.112105263157895</v>
       </c>
       <c r="N10">
-        <v>0.8015789473684211</v>
+        <v>1.112105263157895</v>
       </c>
       <c r="O10">
-        <v>1.078947368421053</v>
+        <v>0.9642105263157895</v>
       </c>
       <c r="P10">
-        <v>1.208421052631579</v>
+        <v>1.015</v>
       </c>
       <c r="Q10">
-        <v>0.9864912280701755</v>
+        <v>1.013508771929825</v>
       </c>
       <c r="R10">
-        <v>1.05</v>
+        <v>0.9514035087719298</v>
       </c>
       <c r="S10">
-        <v>0.9864912280701755</v>
+        <v>1.013508771929825</v>
       </c>
       <c r="T10">
-        <v>0.9878947368421053</v>
+        <v>0.991578947368421</v>
       </c>
       <c r="U10">
-        <v>0.9506315789473684</v>
+        <v>1.015684210526316</v>
       </c>
       <c r="V10">
-        <v>0.97875</v>
+        <v>0.9834868421052632</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -1263,64 +1266,64 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.4673639999999992</v>
+        <v>0.8015789473684211</v>
       </c>
       <c r="D11">
-        <v>0.5863880000000014</v>
+        <v>0.7331578947368421</v>
       </c>
       <c r="E11">
-        <v>1.944223999999994</v>
+        <v>1.424736842105263</v>
       </c>
       <c r="F11">
-        <v>1.050108</v>
+        <v>0.9921052631578947</v>
       </c>
       <c r="G11">
-        <v>0.4673639999999992</v>
+        <v>0.8015789473684211</v>
       </c>
       <c r="H11">
-        <v>0.5863880000000014</v>
+        <v>0.7331578947368421</v>
       </c>
       <c r="I11">
-        <v>1.034427999999998</v>
+        <v>1.053684210526316</v>
       </c>
       <c r="J11">
-        <v>1.115416000000001</v>
+        <v>1.035789473684211</v>
       </c>
       <c r="K11">
-        <v>0.8570719999999994</v>
+        <v>0.9410526315789474</v>
       </c>
       <c r="L11">
-        <v>0.8497400000000003</v>
+        <v>0.8478947368421053</v>
       </c>
       <c r="M11">
-        <v>0.4673639999999992</v>
+        <v>0.8010526315789473</v>
       </c>
       <c r="N11">
-        <v>0.4673639999999992</v>
+        <v>0.8015789473684211</v>
       </c>
       <c r="O11">
-        <v>1.265305999999998</v>
+        <v>1.078947368421053</v>
       </c>
       <c r="P11">
-        <v>1.497165999999997</v>
+        <v>1.208421052631579</v>
       </c>
       <c r="Q11">
-        <v>0.9993253333333317</v>
+        <v>0.9864912280701755</v>
       </c>
       <c r="R11">
-        <v>1.193573333333332</v>
+        <v>1.05</v>
       </c>
       <c r="S11">
-        <v>0.9993253333333317</v>
+        <v>0.9864912280701755</v>
       </c>
       <c r="T11">
-        <v>1.012020999999999</v>
+        <v>0.9878947368421053</v>
       </c>
       <c r="U11">
-        <v>0.9030895999999989</v>
+        <v>0.9506315789473684</v>
       </c>
       <c r="V11">
-        <v>0.9880924999999994</v>
+        <v>0.97875</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -1331,64 +1334,64 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.37</v>
+        <v>0.4673639999999992</v>
       </c>
       <c r="D12">
-        <v>0.43</v>
+        <v>0.5863880000000014</v>
       </c>
       <c r="E12">
-        <v>2.307787500000005</v>
+        <v>1.944223999999994</v>
       </c>
       <c r="F12">
-        <v>1.012800000000001</v>
+        <v>1.050108</v>
       </c>
       <c r="G12">
-        <v>0.37</v>
+        <v>0.4673639999999992</v>
       </c>
       <c r="H12">
-        <v>0.43</v>
+        <v>0.5863880000000014</v>
       </c>
       <c r="I12">
-        <v>1.0698625</v>
+        <v>1.034427999999998</v>
       </c>
       <c r="J12">
-        <v>1.14</v>
+        <v>1.115416000000001</v>
       </c>
       <c r="K12">
-        <v>0.8100000000000001</v>
+        <v>0.8570719999999994</v>
       </c>
       <c r="L12">
-        <v>0.7883250000000011</v>
+        <v>0.8497400000000003</v>
       </c>
       <c r="M12">
-        <v>0.37</v>
+        <v>0.4673639999999992</v>
       </c>
       <c r="N12">
-        <v>0.37</v>
+        <v>0.4673639999999992</v>
       </c>
       <c r="O12">
-        <v>1.368893750000002</v>
+        <v>1.265305999999998</v>
       </c>
       <c r="P12">
-        <v>1.660293750000003</v>
+        <v>1.497165999999997</v>
       </c>
       <c r="Q12">
-        <v>1.035929166666668</v>
+        <v>0.9993253333333317</v>
       </c>
       <c r="R12">
-        <v>1.250195833333335</v>
+        <v>1.193573333333332</v>
       </c>
       <c r="S12">
-        <v>1.035929166666668</v>
+        <v>0.9993253333333317</v>
       </c>
       <c r="T12">
-        <v>1.030146875000002</v>
+        <v>1.012020999999999</v>
       </c>
       <c r="U12">
-        <v>0.8981175000000012</v>
+        <v>0.9030895999999989</v>
       </c>
       <c r="V12">
-        <v>0.9910968750000008</v>
+        <v>0.9880924999999994</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -1399,64 +1402,64 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.6329671753727996</v>
+        <v>0.37</v>
       </c>
       <c r="D13">
-        <v>0.6670786767871995</v>
+        <v>0.43</v>
       </c>
       <c r="E13">
-        <v>1.727308934656002</v>
+        <v>2.307787500000005</v>
       </c>
       <c r="F13">
-        <v>0.9999519609855996</v>
+        <v>1.012800000000001</v>
       </c>
       <c r="G13">
-        <v>0.6329671753727996</v>
+        <v>0.37</v>
       </c>
       <c r="H13">
-        <v>0.6670786767871995</v>
+        <v>0.43</v>
       </c>
       <c r="I13">
-        <v>1.0413443135488</v>
+        <v>1.0698625</v>
       </c>
       <c r="J13">
-        <v>1.079964128665602</v>
+        <v>1.14</v>
       </c>
       <c r="K13">
-        <v>0.8864931692543976</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="L13">
-        <v>0.8727113646080029</v>
+        <v>0.7883250000000011</v>
       </c>
       <c r="M13">
-        <v>0.6329605728255995</v>
+        <v>0.37</v>
       </c>
       <c r="N13">
-        <v>0.6329671753727996</v>
+        <v>0.37</v>
       </c>
       <c r="O13">
-        <v>1.197193805721601</v>
+        <v>1.368893750000002</v>
       </c>
       <c r="P13">
-        <v>1.363630447820801</v>
+        <v>1.660293750000003</v>
       </c>
       <c r="Q13">
-        <v>1.009118262272</v>
+        <v>1.035929166666668</v>
       </c>
       <c r="R13">
-        <v>1.131446524142934</v>
+        <v>1.250195833333335</v>
       </c>
       <c r="S13">
-        <v>1.009118262272</v>
+        <v>1.035929166666668</v>
       </c>
       <c r="T13">
-        <v>1.0068266869504</v>
+        <v>1.030146875000002</v>
       </c>
       <c r="U13">
-        <v>0.93205478463488</v>
+        <v>0.8981175000000012</v>
       </c>
       <c r="V13">
-        <v>0.9884774654848003</v>
+        <v>0.9910968750000008</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -1467,64 +1470,64 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9887843999640629</v>
+        <v>0.6329671753727996</v>
       </c>
       <c r="D14">
-        <v>0.9904044004571106</v>
+        <v>0.6670786767871995</v>
       </c>
       <c r="E14">
-        <v>0.990327911822577</v>
+        <v>1.727308934656002</v>
       </c>
       <c r="F14">
-        <v>0.9889344979512075</v>
+        <v>0.9999519609855996</v>
       </c>
       <c r="G14">
-        <v>0.9887843999640629</v>
+        <v>0.6329671753727996</v>
       </c>
       <c r="H14">
-        <v>0.9904044004571106</v>
+        <v>0.6670786767871995</v>
       </c>
       <c r="I14">
-        <v>0.9892063469786483</v>
+        <v>1.0413443135488</v>
       </c>
       <c r="J14">
-        <v>0.9889430774921655</v>
+        <v>1.079964128665602</v>
       </c>
       <c r="K14">
-        <v>0.9885698970046537</v>
+        <v>0.8864931692543976</v>
       </c>
       <c r="L14">
-        <v>0.9885888607432476</v>
+        <v>0.8727113646080029</v>
       </c>
       <c r="M14">
-        <v>0.9887481145903299</v>
+        <v>0.6329605728255995</v>
       </c>
       <c r="N14">
-        <v>0.9887843999640629</v>
+        <v>0.6329671753727996</v>
       </c>
       <c r="O14">
-        <v>0.9903661561398438</v>
+        <v>1.197193805721601</v>
       </c>
       <c r="P14">
-        <v>0.9896312048868923</v>
+        <v>1.363630447820801</v>
       </c>
       <c r="Q14">
-        <v>0.9898389040812502</v>
+        <v>1.009118262272</v>
       </c>
       <c r="R14">
-        <v>0.9898889367436317</v>
+        <v>1.131446524142934</v>
       </c>
       <c r="S14">
-        <v>0.9898389040812502</v>
+        <v>1.009118262272</v>
       </c>
       <c r="T14">
-        <v>0.9896128025487395</v>
+        <v>1.0068266869504</v>
       </c>
       <c r="U14">
-        <v>0.9894471220318042</v>
+        <v>0.93205478463488</v>
       </c>
       <c r="V14">
-        <v>0.9892199240517092</v>
+        <v>0.9884774654848003</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -1535,64 +1538,64 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.000152709206348</v>
+        <v>0.9887843999640629</v>
       </c>
       <c r="D15">
-        <v>1.004512157379551</v>
+        <v>0.9904044004571106</v>
       </c>
       <c r="E15">
-        <v>0.9787567452273622</v>
+        <v>0.990327911822577</v>
       </c>
       <c r="F15">
-        <v>0.993029961728995</v>
+        <v>0.9889344979512075</v>
       </c>
       <c r="G15">
-        <v>1.000152709206348</v>
+        <v>0.9887843999640629</v>
       </c>
       <c r="H15">
-        <v>1.004512157379551</v>
+        <v>0.9904044004571106</v>
       </c>
       <c r="I15">
-        <v>0.9803620705836725</v>
+        <v>0.9892063469786483</v>
       </c>
       <c r="J15">
-        <v>0.9818826134185249</v>
+        <v>0.9889430774921655</v>
       </c>
       <c r="K15">
-        <v>0.9904940528935374</v>
+        <v>0.9885698970046537</v>
       </c>
       <c r="L15">
-        <v>0.9977694582706162</v>
+        <v>0.9885888607432476</v>
       </c>
       <c r="M15">
-        <v>1.000124337934872</v>
+        <v>0.9887481145903299</v>
       </c>
       <c r="N15">
-        <v>1.000152709206348</v>
+        <v>0.9887843999640629</v>
       </c>
       <c r="O15">
-        <v>0.9916344513034566</v>
+        <v>0.9903661561398438</v>
       </c>
       <c r="P15">
-        <v>0.9858933534781786</v>
+        <v>0.9896312048868923</v>
       </c>
       <c r="Q15">
-        <v>0.9944738706044204</v>
+        <v>0.9898389040812502</v>
       </c>
       <c r="R15">
-        <v>0.9920996214453028</v>
+        <v>0.9898889367436317</v>
       </c>
       <c r="S15">
-        <v>0.9944738706044204</v>
+        <v>0.9898389040812502</v>
       </c>
       <c r="T15">
-        <v>0.9941128933855641</v>
+        <v>0.9896128025487395</v>
       </c>
       <c r="U15">
-        <v>0.995320856549721</v>
+        <v>0.9894471220318042</v>
       </c>
       <c r="V15">
-        <v>0.9908699710885759</v>
+        <v>0.9892199240517092</v>
       </c>
     </row>
     <row r="16" spans="1:22">
@@ -1603,64 +1606,64 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.02255734123436</v>
+        <v>1.000152709206348</v>
       </c>
       <c r="D16">
-        <v>0.9931844592767162</v>
+        <v>1.004512157379551</v>
       </c>
       <c r="E16">
-        <v>0.9161329152626352</v>
+        <v>0.9787567452273622</v>
       </c>
       <c r="F16">
-        <v>0.964880856355573</v>
+        <v>0.993029961728995</v>
       </c>
       <c r="G16">
-        <v>1.02255734123436</v>
+        <v>1.000152709206348</v>
       </c>
       <c r="H16">
-        <v>0.9931844592767162</v>
+        <v>1.004512157379551</v>
       </c>
       <c r="I16">
-        <v>0.9478022147687299</v>
+        <v>0.9803620705836725</v>
       </c>
       <c r="J16">
-        <v>0.9454823625033981</v>
+        <v>0.9818826134185249</v>
       </c>
       <c r="K16">
-        <v>0.9782517911593858</v>
+        <v>0.9904940528935374</v>
       </c>
       <c r="L16">
-        <v>0.994102143112304</v>
+        <v>0.9977694582706162</v>
       </c>
       <c r="M16">
-        <v>1.02255734123436</v>
+        <v>1.000124337934872</v>
       </c>
       <c r="N16">
-        <v>1.02255734123436</v>
+        <v>1.000152709206348</v>
       </c>
       <c r="O16">
-        <v>0.9546586872696756</v>
+        <v>0.9916344513034566</v>
       </c>
       <c r="P16">
-        <v>0.9405068858091041</v>
+        <v>0.9858933534781786</v>
       </c>
       <c r="Q16">
-        <v>0.9772915719245706</v>
+        <v>0.9944738706044204</v>
       </c>
       <c r="R16">
-        <v>0.9580660769649748</v>
+        <v>0.9920996214453028</v>
       </c>
       <c r="S16">
-        <v>0.9772915719245706</v>
+        <v>0.9944738706044204</v>
       </c>
       <c r="T16">
-        <v>0.9741888930323213</v>
+        <v>0.9941128933855641</v>
       </c>
       <c r="U16">
-        <v>0.9838625826727292</v>
+        <v>0.995320856549721</v>
       </c>
       <c r="V16">
-        <v>0.9702992604591378</v>
+        <v>0.9908699710885759</v>
       </c>
     </row>
     <row r="17" spans="1:22">
@@ -1671,64 +1674,64 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9857437825585923</v>
+        <v>1.02255734123436</v>
       </c>
       <c r="D17">
-        <v>0.9806932358636878</v>
+        <v>0.9931844592767162</v>
       </c>
       <c r="E17">
-        <v>1.002772492231555</v>
+        <v>0.9161329152626352</v>
       </c>
       <c r="F17">
-        <v>0.9879623629437273</v>
+        <v>0.964880856355573</v>
       </c>
       <c r="G17">
-        <v>0.9857437825585923</v>
+        <v>1.02255734123436</v>
       </c>
       <c r="H17">
-        <v>0.9806932358636878</v>
+        <v>0.9931844592767162</v>
       </c>
       <c r="I17">
-        <v>0.9923092092098914</v>
+        <v>0.9478022147687299</v>
       </c>
       <c r="J17">
-        <v>0.9897381733372732</v>
+        <v>0.9454823625033981</v>
       </c>
       <c r="K17">
-        <v>0.9877567569274646</v>
+        <v>0.9782517911593858</v>
       </c>
       <c r="L17">
-        <v>0.9823703967609644</v>
+        <v>0.994102143112304</v>
       </c>
       <c r="M17">
-        <v>0.9856878184475092</v>
+        <v>1.02255734123436</v>
       </c>
       <c r="N17">
-        <v>0.9857437825585923</v>
+        <v>1.02255734123436</v>
       </c>
       <c r="O17">
-        <v>0.9917328640476213</v>
+        <v>0.9546586872696756</v>
       </c>
       <c r="P17">
-        <v>0.995367427587641</v>
+        <v>0.9405068858091041</v>
       </c>
       <c r="Q17">
-        <v>0.9897365035512783</v>
+        <v>0.9772915719245706</v>
       </c>
       <c r="R17">
-        <v>0.9904760303463233</v>
+        <v>0.9580660769649748</v>
       </c>
       <c r="S17">
-        <v>0.9897365035512783</v>
+        <v>0.9772915719245706</v>
       </c>
       <c r="T17">
-        <v>0.9892929683993905</v>
+        <v>0.9741888930323213</v>
       </c>
       <c r="U17">
-        <v>0.9885831312312309</v>
+        <v>0.9838625826727292</v>
       </c>
       <c r="V17">
-        <v>0.9886683012291444</v>
+        <v>0.9702992604591378</v>
       </c>
     </row>
     <row r="18" spans="1:22">
@@ -1739,64 +1742,64 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.026851699451218</v>
+        <v>0.9857437825585923</v>
       </c>
       <c r="D18">
-        <v>0.9790984118547562</v>
+        <v>0.9806932358636878</v>
       </c>
       <c r="E18">
-        <v>1.003389482083212</v>
+        <v>1.002772492231555</v>
       </c>
       <c r="F18">
-        <v>0.9989536389836245</v>
+        <v>0.9879623629437273</v>
       </c>
       <c r="G18">
-        <v>1.026851699451218</v>
+        <v>0.9857437825585923</v>
       </c>
       <c r="H18">
-        <v>0.9790984118547562</v>
+        <v>0.9806932358636878</v>
       </c>
       <c r="I18">
-        <v>0.9825093103883488</v>
+        <v>0.9923092092098914</v>
       </c>
       <c r="J18">
-        <v>0.9791686222402197</v>
+        <v>0.9897381733372732</v>
       </c>
       <c r="K18">
-        <v>1.008276228812066</v>
+        <v>0.9877567569274646</v>
       </c>
       <c r="L18">
-        <v>0.9829359539259351</v>
+        <v>0.9823703967609644</v>
       </c>
       <c r="M18">
-        <v>1.026851699451218</v>
+        <v>0.9856878184475092</v>
       </c>
       <c r="N18">
-        <v>1.026851699451218</v>
+        <v>0.9857437825585923</v>
       </c>
       <c r="O18">
-        <v>0.991243946968984</v>
+        <v>0.9917328640476213</v>
       </c>
       <c r="P18">
-        <v>1.001171560533418</v>
+        <v>0.995367427587641</v>
       </c>
       <c r="Q18">
-        <v>1.003113197796395</v>
+        <v>0.9897365035512783</v>
       </c>
       <c r="R18">
-        <v>0.9938138443071974</v>
+        <v>0.9904760303463233</v>
       </c>
       <c r="S18">
-        <v>1.003113197796395</v>
+        <v>0.9897365035512783</v>
       </c>
       <c r="T18">
-        <v>1.002073308093203</v>
+        <v>0.9892929683993905</v>
       </c>
       <c r="U18">
-        <v>1.007028986364806</v>
+        <v>0.9885831312312309</v>
       </c>
       <c r="V18">
-        <v>0.9951479184674226</v>
+        <v>0.9886683012291444</v>
       </c>
     </row>
     <row r="19" spans="1:22">
@@ -1807,64 +1810,64 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.021872079610354</v>
+        <v>1.026851699451218</v>
       </c>
       <c r="D19">
-        <v>0.9640626025792043</v>
+        <v>0.9790984118547562</v>
       </c>
       <c r="E19">
-        <v>1.00559727871756</v>
+        <v>1.003389482083212</v>
       </c>
       <c r="F19">
-        <v>0.9872769529437133</v>
+        <v>0.9989536389836245</v>
       </c>
       <c r="G19">
-        <v>1.021872079610354</v>
+        <v>1.026851699451218</v>
       </c>
       <c r="H19">
-        <v>0.9640626025792043</v>
+        <v>0.9790984118547562</v>
       </c>
       <c r="I19">
-        <v>0.9550540930481697</v>
+        <v>0.9825093103883488</v>
       </c>
       <c r="J19">
-        <v>0.9654013875757522</v>
+        <v>0.9791686222402197</v>
       </c>
       <c r="K19">
-        <v>0.9976474095976202</v>
+        <v>1.008276228812066</v>
       </c>
       <c r="L19">
-        <v>0.9687570580862782</v>
+        <v>0.9829359539259351</v>
       </c>
       <c r="M19">
-        <v>1.021872079610354</v>
+        <v>1.026851699451218</v>
       </c>
       <c r="N19">
-        <v>1.021872079610354</v>
+        <v>1.026851699451218</v>
       </c>
       <c r="O19">
-        <v>0.984829940648382</v>
+        <v>0.991243946968984</v>
       </c>
       <c r="P19">
-        <v>0.9964371158306365</v>
+        <v>1.001171560533418</v>
       </c>
       <c r="Q19">
-        <v>0.9971773203023725</v>
+        <v>1.003113197796395</v>
       </c>
       <c r="R19">
-        <v>0.9856456114134925</v>
+        <v>0.9938138443071974</v>
       </c>
       <c r="S19">
-        <v>0.9971773203023725</v>
+        <v>1.003113197796395</v>
       </c>
       <c r="T19">
-        <v>0.9947022284627077</v>
+        <v>1.002073308093203</v>
       </c>
       <c r="U19">
-        <v>1.000136198692237</v>
+        <v>1.007028986364806</v>
       </c>
       <c r="V19">
-        <v>0.9832086077698314</v>
+        <v>0.9951479184674226</v>
       </c>
     </row>
     <row r="20" spans="1:22">
@@ -1875,64 +1878,64 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.083363025946868</v>
+        <v>1.021872079610354</v>
       </c>
       <c r="D20">
-        <v>0.9885975887740361</v>
+        <v>0.9640626025792043</v>
       </c>
       <c r="E20">
-        <v>1.082925712346504</v>
+        <v>1.00559727871756</v>
       </c>
       <c r="F20">
-        <v>1.042190916690495</v>
+        <v>0.9872769529437133</v>
       </c>
       <c r="G20">
-        <v>1.083363025946868</v>
+        <v>1.021872079610354</v>
       </c>
       <c r="H20">
-        <v>0.9885975887740361</v>
+        <v>0.9640626025792043</v>
       </c>
       <c r="I20">
-        <v>0.932657624227941</v>
+        <v>0.9550540930481697</v>
       </c>
       <c r="J20">
-        <v>0.9580808814428884</v>
+        <v>0.9654013875757522</v>
       </c>
       <c r="K20">
-        <v>1.033744452636947</v>
+        <v>0.9976474095976202</v>
       </c>
       <c r="L20">
-        <v>0.9909559497109017</v>
+        <v>0.9687570580862782</v>
       </c>
       <c r="M20">
-        <v>1.083363025946868</v>
+        <v>1.021872079610354</v>
       </c>
       <c r="N20">
-        <v>1.083363025946868</v>
+        <v>1.021872079610354</v>
       </c>
       <c r="O20">
-        <v>1.03576165056027</v>
+        <v>0.984829940648382</v>
       </c>
       <c r="P20">
-        <v>1.0625583145185</v>
+        <v>0.9964371158306365</v>
       </c>
       <c r="Q20">
-        <v>1.051628775689136</v>
+        <v>0.9971773203023725</v>
       </c>
       <c r="R20">
-        <v>1.037904739270345</v>
+        <v>0.9856456114134925</v>
       </c>
       <c r="S20">
-        <v>1.051628775689136</v>
+        <v>0.9971773203023725</v>
       </c>
       <c r="T20">
-        <v>1.049269310939476</v>
+        <v>0.9947022284627077</v>
       </c>
       <c r="U20">
-        <v>1.056088053940954</v>
+        <v>1.000136198692237</v>
       </c>
       <c r="V20">
-        <v>1.014064518972073</v>
+        <v>0.9832086077698314</v>
       </c>
     </row>
     <row r="21" spans="1:22">
@@ -1943,64 +1946,64 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.986114718402247</v>
+        <v>1.083363025946868</v>
       </c>
       <c r="D21">
-        <v>0.9908333365308992</v>
+        <v>0.9885975887740361</v>
       </c>
       <c r="E21">
-        <v>1.000797924404224</v>
+        <v>1.082925712346504</v>
       </c>
       <c r="F21">
-        <v>0.9953473529303569</v>
+        <v>1.042190916690495</v>
       </c>
       <c r="G21">
-        <v>0.986114718402247</v>
+        <v>1.083363025946868</v>
       </c>
       <c r="H21">
-        <v>0.9908333365308992</v>
+        <v>0.9885975887740361</v>
       </c>
       <c r="I21">
-        <v>0.9822909874186225</v>
+        <v>0.932657624227941</v>
       </c>
       <c r="J21">
-        <v>0.9860358517270978</v>
+        <v>0.9580808814428884</v>
       </c>
       <c r="K21">
-        <v>0.9871701206470221</v>
+        <v>1.033744452636947</v>
       </c>
       <c r="L21">
-        <v>0.9915345322390446</v>
+        <v>0.9909559497109017</v>
       </c>
       <c r="M21">
-        <v>0.9860616618906278</v>
+        <v>1.083363025946868</v>
       </c>
       <c r="N21">
-        <v>0.986114718402247</v>
+        <v>1.083363025946868</v>
       </c>
       <c r="O21">
-        <v>0.9958156304675618</v>
+        <v>1.03576165056027</v>
       </c>
       <c r="P21">
-        <v>0.9980726386672907</v>
+        <v>1.0625583145185</v>
       </c>
       <c r="Q21">
-        <v>0.992581993112457</v>
+        <v>1.051628775689136</v>
       </c>
       <c r="R21">
-        <v>0.9956595379551603</v>
+        <v>1.037904739270345</v>
       </c>
       <c r="S21">
-        <v>0.992581993112457</v>
+        <v>1.051628775689136</v>
       </c>
       <c r="T21">
-        <v>0.9932733330669319</v>
+        <v>1.049269310939476</v>
       </c>
       <c r="U21">
-        <v>0.9918416101339949</v>
+        <v>1.056088053940954</v>
       </c>
       <c r="V21">
-        <v>0.9900156030374393</v>
+        <v>1.014064518972073</v>
       </c>
     </row>
     <row r="22" spans="1:22">
@@ -2011,64 +2014,64 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9801685346859541</v>
+        <v>0.986114718402247</v>
       </c>
       <c r="D22">
-        <v>0.9804571644363187</v>
+        <v>0.9908333365308992</v>
       </c>
       <c r="E22">
-        <v>1.049788979920935</v>
+        <v>1.000797924404224</v>
       </c>
       <c r="F22">
-        <v>1.00889087747487</v>
+        <v>0.9953473529303569</v>
       </c>
       <c r="G22">
-        <v>0.9801685346859541</v>
+        <v>0.986114718402247</v>
       </c>
       <c r="H22">
-        <v>0.9804571644363187</v>
+        <v>0.9908333365308992</v>
       </c>
       <c r="I22">
-        <v>0.9756743178671163</v>
+        <v>0.9822909874186225</v>
       </c>
       <c r="J22">
-        <v>0.9824990838026314</v>
+        <v>0.9860358517270978</v>
       </c>
       <c r="K22">
-        <v>0.9923687554666196</v>
+        <v>0.9871701206470221</v>
       </c>
       <c r="L22">
-        <v>0.9888168554837935</v>
+        <v>0.9915345322390446</v>
       </c>
       <c r="M22">
-        <v>0.9801685346859541</v>
+        <v>0.9860616618906278</v>
       </c>
       <c r="N22">
-        <v>0.9801685346859541</v>
+        <v>0.986114718402247</v>
       </c>
       <c r="O22">
-        <v>1.015123072178627</v>
+        <v>0.9958156304675618</v>
       </c>
       <c r="P22">
-        <v>1.029339928697902</v>
+        <v>0.9980726386672907</v>
       </c>
       <c r="Q22">
-        <v>1.003471559681069</v>
+        <v>0.992581993112457</v>
       </c>
       <c r="R22">
-        <v>1.013045673944041</v>
+        <v>0.9956595379551603</v>
       </c>
       <c r="S22">
-        <v>1.003471559681069</v>
+        <v>0.992581993112457</v>
       </c>
       <c r="T22">
-        <v>1.004826389129519</v>
+        <v>0.9932733330669319</v>
       </c>
       <c r="U22">
-        <v>0.9998948182408063</v>
+        <v>0.9918416101339949</v>
       </c>
       <c r="V22">
-        <v>0.9948330711422797</v>
+        <v>0.9900156030374393</v>
       </c>
     </row>
     <row r="23" spans="1:22">
@@ -2079,64 +2082,64 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.001232107355274</v>
+        <v>0.9801685346859541</v>
       </c>
       <c r="D23">
-        <v>0.9771829554678573</v>
+        <v>0.9804571644363187</v>
       </c>
       <c r="E23">
-        <v>0.9149953241975642</v>
+        <v>1.049788979920935</v>
       </c>
       <c r="F23">
-        <v>0.9733360985592977</v>
+        <v>1.00889087747487</v>
       </c>
       <c r="G23">
-        <v>1.001232107355274</v>
+        <v>0.9801685346859541</v>
       </c>
       <c r="H23">
-        <v>0.9771829554678573</v>
+        <v>0.9804571644363187</v>
       </c>
       <c r="I23">
-        <v>0.952667276973307</v>
+        <v>0.9756743178671163</v>
       </c>
       <c r="J23">
-        <v>0.9548012916827096</v>
+        <v>0.9824990838026314</v>
       </c>
       <c r="K23">
-        <v>0.9786173588183652</v>
+        <v>0.9923687554666196</v>
       </c>
       <c r="L23">
-        <v>0.9830312953099957</v>
+        <v>0.9888168554837935</v>
       </c>
       <c r="M23">
-        <v>1.001232107355274</v>
+        <v>0.9801685346859541</v>
       </c>
       <c r="N23">
-        <v>1.001232107355274</v>
+        <v>0.9801685346859541</v>
       </c>
       <c r="O23">
-        <v>0.9460891398327107</v>
+        <v>1.015123072178627</v>
       </c>
       <c r="P23">
-        <v>0.944165711378431</v>
+        <v>1.029339928697902</v>
       </c>
       <c r="Q23">
-        <v>0.9644701290068985</v>
+        <v>1.003471559681069</v>
       </c>
       <c r="R23">
-        <v>0.9551714594082398</v>
+        <v>1.013045673944041</v>
       </c>
       <c r="S23">
-        <v>0.9644701290068985</v>
+        <v>1.003471559681069</v>
       </c>
       <c r="T23">
-        <v>0.9666866213949984</v>
+        <v>1.004826389129519</v>
       </c>
       <c r="U23">
-        <v>0.9735957185870536</v>
+        <v>0.9998948182408063</v>
       </c>
       <c r="V23">
-        <v>0.9669829635455464</v>
+        <v>0.9948330711422797</v>
       </c>
     </row>
     <row r="24" spans="1:22">
@@ -2147,64 +2150,64 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.020325901468101</v>
+        <v>1.001232107355274</v>
       </c>
       <c r="D24">
-        <v>1.006223532603777</v>
+        <v>0.9771829554678573</v>
       </c>
       <c r="E24">
-        <v>1.226724697811121</v>
+        <v>0.9149953241975642</v>
       </c>
       <c r="F24">
-        <v>1.058574489411646</v>
+        <v>0.9733360985592977</v>
       </c>
       <c r="G24">
-        <v>1.020325901468101</v>
+        <v>1.001232107355274</v>
       </c>
       <c r="H24">
-        <v>1.006223532603777</v>
+        <v>0.9771829554678573</v>
       </c>
       <c r="I24">
-        <v>0.9371226549823199</v>
+        <v>0.952667276973307</v>
       </c>
       <c r="J24">
-        <v>0.9619518987981641</v>
+        <v>0.9548012916827096</v>
       </c>
       <c r="K24">
-        <v>1.011414866207764</v>
+        <v>0.9786173588183652</v>
       </c>
       <c r="L24">
-        <v>0.9776623829479538</v>
+        <v>0.9830312953099957</v>
       </c>
       <c r="M24">
-        <v>1.020325901468101</v>
+        <v>1.001232107355274</v>
       </c>
       <c r="N24">
-        <v>1.020325901468101</v>
+        <v>1.001232107355274</v>
       </c>
       <c r="O24">
-        <v>1.116474115207449</v>
+        <v>0.9460891398327107</v>
       </c>
       <c r="P24">
-        <v>1.142649593611384</v>
+        <v>0.944165711378431</v>
       </c>
       <c r="Q24">
-        <v>1.084424710627666</v>
+        <v>0.9644701290068985</v>
       </c>
       <c r="R24">
-        <v>1.097174239942181</v>
+        <v>0.9551714594082398</v>
       </c>
       <c r="S24">
-        <v>1.084424710627666</v>
+        <v>0.9644701290068985</v>
       </c>
       <c r="T24">
-        <v>1.077962155323661</v>
+        <v>0.9666866213949984</v>
       </c>
       <c r="U24">
-        <v>1.066434904552549</v>
+        <v>0.9735957185870536</v>
       </c>
       <c r="V24">
-        <v>1.025000053028856</v>
+        <v>0.9669829635455464</v>
       </c>
     </row>
     <row r="25" spans="1:22">
@@ -2215,64 +2218,64 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.115393145563859</v>
+        <v>1.020325901468101</v>
       </c>
       <c r="D25">
-        <v>1.004842386546062</v>
+        <v>1.006223532603777</v>
       </c>
       <c r="E25">
-        <v>0.9321054306587966</v>
+        <v>1.226724697811121</v>
       </c>
       <c r="F25">
-        <v>0.9942012294831603</v>
+        <v>1.058574489411646</v>
       </c>
       <c r="G25">
-        <v>1.115393145563859</v>
+        <v>1.020325901468101</v>
       </c>
       <c r="H25">
-        <v>1.004842386546062</v>
+        <v>1.006223532603777</v>
       </c>
       <c r="I25">
-        <v>0.9675690095884468</v>
+        <v>0.9371226549823199</v>
       </c>
       <c r="J25">
-        <v>0.9435532192067674</v>
+        <v>0.9619518987981641</v>
       </c>
       <c r="K25">
-        <v>1.030395205075017</v>
+        <v>1.011414866207764</v>
       </c>
       <c r="L25">
-        <v>0.985247630943838</v>
+        <v>0.9776623829479538</v>
       </c>
       <c r="M25">
-        <v>1.115267704667673</v>
+        <v>1.020325901468101</v>
       </c>
       <c r="N25">
-        <v>1.115393145563859</v>
+        <v>1.020325901468101</v>
       </c>
       <c r="O25">
-        <v>0.9684739086024293</v>
+        <v>1.116474115207449</v>
       </c>
       <c r="P25">
-        <v>0.9631533300709785</v>
+        <v>1.142649593611384</v>
       </c>
       <c r="Q25">
-        <v>1.017446987589573</v>
+        <v>1.084424710627666</v>
       </c>
       <c r="R25">
-        <v>0.9770496822293396</v>
+        <v>1.097174239942181</v>
       </c>
       <c r="S25">
-        <v>1.017446987589573</v>
+        <v>1.084424710627666</v>
       </c>
       <c r="T25">
-        <v>1.01163554806297</v>
+        <v>1.077962155323661</v>
       </c>
       <c r="U25">
-        <v>1.032387067563147</v>
+        <v>1.066434904552549</v>
       </c>
       <c r="V25">
-        <v>0.9966634071332434</v>
+        <v>1.025000053028856</v>
       </c>
     </row>
     <row r="26" spans="1:22">
@@ -2283,64 +2286,64 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.9869379509005285</v>
+        <v>1.115393145563859</v>
       </c>
       <c r="D26">
-        <v>0.989462331943232</v>
+        <v>1.004842386546062</v>
       </c>
       <c r="E26">
-        <v>0.9917677548885813</v>
+        <v>0.9321054306587966</v>
       </c>
       <c r="F26">
-        <v>0.9890425799704378</v>
+        <v>0.9942012294831603</v>
       </c>
       <c r="G26">
-        <v>0.9869379509005285</v>
+        <v>1.115393145563859</v>
       </c>
       <c r="H26">
-        <v>0.989462331943232</v>
+        <v>1.004842386546062</v>
       </c>
       <c r="I26">
-        <v>0.9894586231430763</v>
+        <v>0.9675690095884468</v>
       </c>
       <c r="J26">
-        <v>0.990071772061993</v>
+        <v>0.9435532192067674</v>
       </c>
       <c r="K26">
-        <v>0.9880318356844797</v>
+        <v>1.030395205075017</v>
       </c>
       <c r="L26">
-        <v>0.9885000482510828</v>
+        <v>0.985247630943838</v>
       </c>
       <c r="M26">
-        <v>0.9869039292141683</v>
+        <v>1.115267704667673</v>
       </c>
       <c r="N26">
-        <v>0.9869379509005285</v>
+        <v>1.115393145563859</v>
       </c>
       <c r="O26">
-        <v>0.9906150434159067</v>
+        <v>0.9684739086024293</v>
       </c>
       <c r="P26">
-        <v>0.9904051674295096</v>
+        <v>0.9631533300709785</v>
       </c>
       <c r="Q26">
-        <v>0.9893893459107806</v>
+        <v>1.017446987589573</v>
       </c>
       <c r="R26">
-        <v>0.9900908889340837</v>
+        <v>0.9770496822293396</v>
       </c>
       <c r="S26">
-        <v>0.9893893459107805</v>
+        <v>1.017446987589573</v>
       </c>
       <c r="T26">
-        <v>0.9893026544256949</v>
+        <v>1.01163554806297</v>
       </c>
       <c r="U26">
-        <v>0.9888297137206615</v>
+        <v>1.032387067563147</v>
       </c>
       <c r="V26">
-        <v>0.9891591121054264</v>
+        <v>0.9966634071332434</v>
       </c>
     </row>
     <row r="27" spans="1:22">
@@ -2351,64 +2354,64 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>1.135128228763791</v>
+        <v>0.9869379509005285</v>
       </c>
       <c r="D27">
-        <v>1.072352427061186</v>
+        <v>0.989462331943232</v>
       </c>
       <c r="E27">
-        <v>0.8762587170048663</v>
+        <v>0.9917677548885813</v>
       </c>
       <c r="F27">
-        <v>1.019043219728949</v>
+        <v>0.9890425799704378</v>
       </c>
       <c r="G27">
-        <v>1.135128228763791</v>
+        <v>0.9869379509005285</v>
       </c>
       <c r="H27">
-        <v>1.072352427061186</v>
+        <v>0.989462331943232</v>
       </c>
       <c r="I27">
-        <v>0.9274724465425614</v>
+        <v>0.9894586231430763</v>
       </c>
       <c r="J27">
-        <v>0.936579282244929</v>
+        <v>0.990071772061993</v>
       </c>
       <c r="K27">
-        <v>1.038586918393756</v>
+        <v>0.9880318356844797</v>
       </c>
       <c r="L27">
-        <v>1.029605117016186</v>
+        <v>0.9885000482510828</v>
       </c>
       <c r="M27">
-        <v>1.134995715061747</v>
+        <v>0.9869039292141683</v>
       </c>
       <c r="N27">
-        <v>1.135128228763791</v>
+        <v>0.9869379509005285</v>
       </c>
       <c r="O27">
-        <v>0.974305572033026</v>
+        <v>0.9906150434159067</v>
       </c>
       <c r="P27">
-        <v>0.9476509683669078</v>
+        <v>0.9904051674295096</v>
       </c>
       <c r="Q27">
-        <v>1.027913124276614</v>
+        <v>0.9893893459107806</v>
       </c>
       <c r="R27">
-        <v>0.9892181212650004</v>
+        <v>0.9900908889340837</v>
       </c>
       <c r="S27">
-        <v>1.027913124276614</v>
+        <v>0.9893893459107805</v>
       </c>
       <c r="T27">
-        <v>1.025695648139698</v>
+        <v>0.9893026544256949</v>
       </c>
       <c r="U27">
-        <v>1.047582164264517</v>
+        <v>0.9888297137206615</v>
       </c>
       <c r="V27">
-        <v>1.004378294594528</v>
+        <v>0.9891591121054264</v>
       </c>
     </row>
     <row r="28" spans="1:22">
@@ -2419,64 +2422,64 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>1.223713766261669</v>
+        <v>1.135128228763791</v>
       </c>
       <c r="D28">
-        <v>1.113581682764826</v>
+        <v>1.072352427061186</v>
       </c>
       <c r="E28">
-        <v>0.832601893415352</v>
+        <v>0.8762587170048663</v>
       </c>
       <c r="F28">
-        <v>1.034581652806276</v>
+        <v>1.019043219728949</v>
       </c>
       <c r="G28">
-        <v>1.223713766261669</v>
+        <v>1.135128228763791</v>
       </c>
       <c r="H28">
-        <v>1.113581682764826</v>
+        <v>1.072352427061186</v>
       </c>
       <c r="I28">
-        <v>0.9047329068644926</v>
+        <v>0.9274724465425614</v>
       </c>
       <c r="J28">
-        <v>0.8976239821738481</v>
+        <v>0.936579282244929</v>
       </c>
       <c r="K28">
-        <v>1.066873143088705</v>
+        <v>1.038586918393756</v>
       </c>
       <c r="L28">
-        <v>1.048537472810502</v>
+        <v>1.029605117016186</v>
       </c>
       <c r="M28">
-        <v>1.223568453025408</v>
+        <v>1.134995715061747</v>
       </c>
       <c r="N28">
-        <v>1.223713766261669</v>
+        <v>1.135128228763791</v>
       </c>
       <c r="O28">
-        <v>0.9730917880900889</v>
+        <v>0.974305572033026</v>
       </c>
       <c r="P28">
-        <v>0.9335917731108141</v>
+        <v>0.9476509683669078</v>
       </c>
       <c r="Q28">
-        <v>1.056632447480616</v>
+        <v>1.027913124276614</v>
       </c>
       <c r="R28">
-        <v>0.9935884096621513</v>
+        <v>0.9892181212650004</v>
       </c>
       <c r="S28">
-        <v>1.056632447480616</v>
+        <v>1.027913124276614</v>
       </c>
       <c r="T28">
-        <v>1.051119748812031</v>
+        <v>1.025695648139698</v>
       </c>
       <c r="U28">
-        <v>1.085638552301959</v>
+        <v>1.047582164264517</v>
       </c>
       <c r="V28">
-        <v>1.015280812523209</v>
+        <v>1.004378294594528</v>
       </c>
     </row>
     <row r="29" spans="1:22">
@@ -2487,64 +2490,64 @@
         <v>27</v>
       </c>
       <c r="C29">
-        <v>1.112542937584353</v>
+        <v>1.223713766261669</v>
       </c>
       <c r="D29">
-        <v>1.003795756610217</v>
+        <v>1.113581682764826</v>
       </c>
       <c r="E29">
-        <v>0.932706088915782</v>
+        <v>0.832601893415352</v>
       </c>
       <c r="F29">
-        <v>0.9935748590180505</v>
+        <v>1.034581652806276</v>
       </c>
       <c r="G29">
-        <v>1.112542937584353</v>
+        <v>1.223713766261669</v>
       </c>
       <c r="H29">
-        <v>1.003795756610217</v>
+        <v>1.113581682764826</v>
       </c>
       <c r="I29">
-        <v>0.968317657246167</v>
+        <v>0.9047329068644926</v>
       </c>
       <c r="J29">
-        <v>0.9444026982342949</v>
+        <v>0.8976239821738481</v>
       </c>
       <c r="K29">
-        <v>1.029082674678257</v>
+        <v>1.066873143088705</v>
       </c>
       <c r="L29">
-        <v>0.9848867539266878</v>
+        <v>1.048537472810502</v>
       </c>
       <c r="M29">
-        <v>1.112420267446727</v>
+        <v>1.223568453025408</v>
       </c>
       <c r="N29">
-        <v>1.112542937584353</v>
+        <v>1.223713766261669</v>
       </c>
       <c r="O29">
-        <v>0.9682509227629994</v>
+        <v>0.9730917880900889</v>
       </c>
       <c r="P29">
-        <v>0.9631404739669163</v>
+        <v>0.9335917731108141</v>
       </c>
       <c r="Q29">
-        <v>1.016348261036784</v>
+        <v>1.056632447480616</v>
       </c>
       <c r="R29">
-        <v>0.9766922348480165</v>
+        <v>0.9935884096621513</v>
       </c>
       <c r="S29">
-        <v>1.016348261036784</v>
+        <v>1.056632447480616</v>
       </c>
       <c r="T29">
-        <v>1.010654910532101</v>
+        <v>1.051119748812031</v>
       </c>
       <c r="U29">
-        <v>1.031032515942551</v>
+        <v>1.085638552301959</v>
       </c>
       <c r="V29">
-        <v>0.996163678276726</v>
+        <v>1.015280812523209</v>
       </c>
     </row>
     <row r="30" spans="1:22">
@@ -2555,64 +2558,64 @@
         <v>28</v>
       </c>
       <c r="C30">
-        <v>0.9863341124600709</v>
+        <v>1.112542937584353</v>
       </c>
       <c r="D30">
-        <v>0.9892857702800962</v>
+        <v>1.003795756610217</v>
       </c>
       <c r="E30">
-        <v>0.9919811336911448</v>
+        <v>0.932706088915782</v>
       </c>
       <c r="F30">
-        <v>0.988954207896946</v>
+        <v>0.9935748590180505</v>
       </c>
       <c r="G30">
-        <v>0.9863341124600709</v>
+        <v>1.112542937584353</v>
       </c>
       <c r="H30">
-        <v>0.9892857702800962</v>
+        <v>1.003795756610217</v>
       </c>
       <c r="I30">
-        <v>0.9895895958539828</v>
+        <v>0.968317657246167</v>
       </c>
       <c r="J30">
-        <v>0.9902885033937016</v>
+        <v>0.9444026982342949</v>
       </c>
       <c r="K30">
-        <v>0.9878506457698358</v>
+        <v>1.029082674678257</v>
       </c>
       <c r="L30">
-        <v>0.9884497267751091</v>
+        <v>0.9848867539266878</v>
       </c>
       <c r="M30">
-        <v>0.986301158175668</v>
+        <v>1.112420267446727</v>
       </c>
       <c r="N30">
-        <v>0.9863341124600709</v>
+        <v>1.112542937584353</v>
       </c>
       <c r="O30">
-        <v>0.9906334519856206</v>
+        <v>0.9682509227629994</v>
       </c>
       <c r="P30">
-        <v>0.9904676707940454</v>
+        <v>0.9631404739669163</v>
       </c>
       <c r="Q30">
-        <v>0.9892003388104373</v>
+        <v>1.016348261036784</v>
       </c>
       <c r="R30">
-        <v>0.9900737039560624</v>
+        <v>0.9766922348480165</v>
       </c>
       <c r="S30">
-        <v>0.9892003388104373</v>
+        <v>1.016348261036784</v>
       </c>
       <c r="T30">
-        <v>0.9891388060820645</v>
+        <v>1.010654910532101</v>
       </c>
       <c r="U30">
-        <v>0.9885778673576657</v>
+        <v>1.031032515942551</v>
       </c>
       <c r="V30">
-        <v>0.9890917120151109</v>
+        <v>0.996163678276726</v>
       </c>
     </row>
     <row r="31" spans="1:22">
@@ -2623,64 +2626,64 @@
         <v>29</v>
       </c>
       <c r="C31">
-        <v>1.131095692218339</v>
+        <v>0.9863341124600709</v>
       </c>
       <c r="D31">
-        <v>1.07067326799292</v>
+        <v>0.9892857702800962</v>
       </c>
       <c r="E31">
-        <v>0.8772826018092754</v>
+        <v>0.9919811336911448</v>
       </c>
       <c r="F31">
-        <v>1.01769701511985</v>
+        <v>0.988954207896946</v>
       </c>
       <c r="G31">
-        <v>1.131095692218339</v>
+        <v>0.9863341124600709</v>
       </c>
       <c r="H31">
-        <v>1.07067326799292</v>
+        <v>0.9892857702800962</v>
       </c>
       <c r="I31">
-        <v>0.9290070098847242</v>
+        <v>0.9895895958539828</v>
       </c>
       <c r="J31">
-        <v>0.9376776666675388</v>
+        <v>0.9902885033937016</v>
       </c>
       <c r="K31">
-        <v>1.036668784915911</v>
+        <v>0.9878506457698358</v>
       </c>
       <c r="L31">
-        <v>1.028611902091969</v>
+        <v>0.9884497267751091</v>
       </c>
       <c r="M31">
-        <v>1.130973071039484</v>
+        <v>0.986301158175668</v>
       </c>
       <c r="N31">
-        <v>1.131095692218339</v>
+        <v>0.9863341124600709</v>
       </c>
       <c r="O31">
-        <v>0.9739779349010977</v>
+        <v>0.9906334519856206</v>
       </c>
       <c r="P31">
-        <v>0.9474898084645627</v>
+        <v>0.9904676707940454</v>
       </c>
       <c r="Q31">
-        <v>1.026350520673512</v>
+        <v>0.9892003388104373</v>
       </c>
       <c r="R31">
-        <v>0.9885509616406818</v>
+        <v>0.9900737039560624</v>
       </c>
       <c r="S31">
-        <v>1.026350520673512</v>
+        <v>0.9892003388104373</v>
       </c>
       <c r="T31">
-        <v>1.024187144285096</v>
+        <v>0.9891388060820645</v>
       </c>
       <c r="U31">
-        <v>1.045568853871745</v>
+        <v>0.9885778673576657</v>
       </c>
       <c r="V31">
-        <v>1.003589242587566</v>
+        <v>0.9890917120151109</v>
       </c>
     </row>
     <row r="32" spans="1:22">
@@ -2691,64 +2694,64 @@
         <v>30</v>
       </c>
       <c r="C32">
-        <v>1.216981203633662</v>
+        <v>1.131095692218339</v>
       </c>
       <c r="D32">
-        <v>1.110620069172237</v>
+        <v>1.07067326799292</v>
       </c>
       <c r="E32">
-        <v>0.8338164542951224</v>
+        <v>0.8772826018092754</v>
       </c>
       <c r="F32">
-        <v>1.03201045276701</v>
+        <v>1.01769701511985</v>
       </c>
       <c r="G32">
-        <v>1.216981203633662</v>
+        <v>1.131095692218339</v>
       </c>
       <c r="H32">
-        <v>1.110620069172237</v>
+        <v>1.07067326799292</v>
       </c>
       <c r="I32">
-        <v>0.9067096964701795</v>
+        <v>0.9290070098847242</v>
       </c>
       <c r="J32">
-        <v>0.8998972019600696</v>
+        <v>0.9376776666675388</v>
       </c>
       <c r="K32">
-        <v>1.063883900040763</v>
+        <v>1.036668784915911</v>
       </c>
       <c r="L32">
-        <v>1.046614848216198</v>
+        <v>1.028611902091969</v>
       </c>
       <c r="M32">
-        <v>1.21685768650322</v>
+        <v>1.130973071039484</v>
       </c>
       <c r="N32">
-        <v>1.216981203633662</v>
+        <v>1.131095692218339</v>
       </c>
       <c r="O32">
-        <v>0.9722182617336796</v>
+        <v>0.9739779349010977</v>
       </c>
       <c r="P32">
-        <v>0.9329134535310659</v>
+        <v>0.9474898084645627</v>
       </c>
       <c r="Q32">
-        <v>1.053805909033674</v>
+        <v>1.026350520673512</v>
       </c>
       <c r="R32">
-        <v>0.992148992078123</v>
+        <v>0.9885509616406818</v>
       </c>
       <c r="S32">
-        <v>1.053805909033674</v>
+        <v>1.026350520673512</v>
       </c>
       <c r="T32">
-        <v>1.048357044967008</v>
+        <v>1.024187144285096</v>
       </c>
       <c r="U32">
-        <v>1.082081876700338</v>
+        <v>1.045568853871745</v>
       </c>
       <c r="V32">
-        <v>1.013816728319405</v>
+        <v>1.003589242587566</v>
       </c>
     </row>
     <row r="33" spans="1:22">
@@ -2759,64 +2762,64 @@
         <v>31</v>
       </c>
       <c r="C33">
-        <v>1.102258110016058</v>
+        <v>1.216981203633662</v>
       </c>
       <c r="D33">
-        <v>1.000248165706918</v>
+        <v>1.110620069172237</v>
       </c>
       <c r="E33">
-        <v>0.9352481296529089</v>
+        <v>0.8338164542951224</v>
       </c>
       <c r="F33">
-        <v>0.9914791430721989</v>
+        <v>1.03201045276701</v>
       </c>
       <c r="G33">
-        <v>1.102258110016058</v>
+        <v>1.216981203633662</v>
       </c>
       <c r="H33">
-        <v>1.000248165706918</v>
+        <v>1.110620069172237</v>
       </c>
       <c r="I33">
-        <v>0.9712226843117676</v>
+        <v>0.9067096964701795</v>
       </c>
       <c r="J33">
-        <v>0.9475288921056377</v>
+        <v>0.8998972019600696</v>
       </c>
       <c r="K33">
-        <v>1.024374125623734</v>
+        <v>1.063883900040763</v>
       </c>
       <c r="L33">
-        <v>0.9836210879816789</v>
+        <v>1.046614848216198</v>
       </c>
       <c r="M33">
-        <v>1.102147837778885</v>
+        <v>1.21685768650322</v>
       </c>
       <c r="N33">
-        <v>1.102258110016058</v>
+        <v>1.216981203633662</v>
       </c>
       <c r="O33">
-        <v>0.9677481476799137</v>
+        <v>0.9722182617336796</v>
       </c>
       <c r="P33">
-        <v>0.963363636362554</v>
+        <v>0.9329134535310659</v>
       </c>
       <c r="Q33">
-        <v>1.012584801791962</v>
+        <v>1.053805909033674</v>
       </c>
       <c r="R33">
-        <v>0.9756584794773421</v>
+        <v>0.992148992078123</v>
       </c>
       <c r="S33">
-        <v>1.012584801791962</v>
+        <v>1.053805909033674</v>
       </c>
       <c r="T33">
-        <v>1.007308387112021</v>
+        <v>1.048357044967008</v>
       </c>
       <c r="U33">
-        <v>1.026298331692828</v>
+        <v>1.082081876700338</v>
       </c>
       <c r="V33">
-        <v>0.9944975423088629</v>
+        <v>1.013816728319405</v>
       </c>
     </row>
     <row r="34" spans="1:22">
@@ -2827,64 +2830,64 @@
         <v>32</v>
       </c>
       <c r="C34">
-        <v>0.9843083032019098</v>
+        <v>1.102258110016058</v>
       </c>
       <c r="D34">
-        <v>0.9887441705334881</v>
+        <v>1.000248165706918</v>
       </c>
       <c r="E34">
-        <v>0.992970438906389</v>
+        <v>0.9352481296529089</v>
       </c>
       <c r="F34">
-        <v>0.9887145009064378</v>
+        <v>0.9914791430721989</v>
       </c>
       <c r="G34">
-        <v>0.9843083032019098</v>
+        <v>1.102258110016058</v>
       </c>
       <c r="H34">
-        <v>0.9887441705334881</v>
+        <v>1.000248165706918</v>
       </c>
       <c r="I34">
-        <v>0.9901190820158243</v>
+        <v>0.9712226843117676</v>
       </c>
       <c r="J34">
-        <v>0.9909641227599053</v>
+        <v>0.9475288921056377</v>
       </c>
       <c r="K34">
-        <v>0.9871145864171501</v>
+        <v>1.024374125623734</v>
       </c>
       <c r="L34">
-        <v>0.9882484451243854</v>
+        <v>0.9836210879816789</v>
       </c>
       <c r="M34">
-        <v>0.9842756002642464</v>
+        <v>1.102147837778885</v>
       </c>
       <c r="N34">
-        <v>0.9843083032019098</v>
+        <v>1.102258110016058</v>
       </c>
       <c r="O34">
-        <v>0.9908573047199385</v>
+        <v>0.9677481476799137</v>
       </c>
       <c r="P34">
-        <v>0.9908424699064133</v>
+        <v>0.963363636362554</v>
       </c>
       <c r="Q34">
-        <v>0.9886743042139289</v>
+        <v>1.012584801791962</v>
       </c>
       <c r="R34">
-        <v>0.9901430367821048</v>
+        <v>0.9756584794773421</v>
       </c>
       <c r="S34">
-        <v>0.9886743042139289</v>
+        <v>1.012584801791962</v>
       </c>
       <c r="T34">
-        <v>0.9886843533870562</v>
+        <v>1.007308387112021</v>
       </c>
       <c r="U34">
-        <v>0.987809143350027</v>
+        <v>1.026298331692828</v>
       </c>
       <c r="V34">
-        <v>0.9888979562331862</v>
+        <v>0.9944975423088629</v>
       </c>
     </row>
     <row r="35" spans="1:22">
@@ -2895,64 +2898,64 @@
         <v>33</v>
       </c>
       <c r="C35">
-        <v>1.116272838188455</v>
+        <v>0.9843083032019098</v>
       </c>
       <c r="D35">
-        <v>1.064582492928152</v>
+        <v>0.9887441705334881</v>
       </c>
       <c r="E35">
-        <v>0.8814961256665129</v>
+        <v>0.992970438906389</v>
       </c>
       <c r="F35">
-        <v>1.012850760090748</v>
+        <v>0.9887145009064378</v>
       </c>
       <c r="G35">
-        <v>1.116272838188455</v>
+        <v>0.9843083032019098</v>
       </c>
       <c r="H35">
-        <v>1.064582492928152</v>
+        <v>0.9887441705334881</v>
       </c>
       <c r="I35">
-        <v>0.935063312824686</v>
+        <v>0.9901190820158243</v>
       </c>
       <c r="J35">
-        <v>0.9418986654246047</v>
+        <v>0.9909641227599053</v>
       </c>
       <c r="K35">
-        <v>1.029826193082157</v>
+        <v>0.9871145864171501</v>
       </c>
       <c r="L35">
-        <v>1.02493346001651</v>
+        <v>0.9882484451243854</v>
       </c>
       <c r="M35">
-        <v>1.116184637334085</v>
+        <v>0.9842756002642464</v>
       </c>
       <c r="N35">
-        <v>1.116272838188455</v>
+        <v>0.9843083032019098</v>
       </c>
       <c r="O35">
-        <v>0.9730393092973324</v>
+        <v>0.9908573047199385</v>
       </c>
       <c r="P35">
-        <v>0.9471734428786303</v>
+        <v>0.9908424699064133</v>
       </c>
       <c r="Q35">
-        <v>1.020783818927707</v>
+        <v>0.9886743042139289</v>
       </c>
       <c r="R35">
-        <v>0.9863097928951374</v>
+        <v>0.9901430367821048</v>
       </c>
       <c r="S35">
-        <v>1.020783818927707</v>
+        <v>0.9886743042139289</v>
       </c>
       <c r="T35">
-        <v>1.018800554218467</v>
+        <v>0.9886843533870562</v>
       </c>
       <c r="U35">
-        <v>1.038295011012465</v>
+        <v>0.987809143350027</v>
       </c>
       <c r="V35">
-        <v>1.000865481027728</v>
+        <v>0.9888979562331862</v>
       </c>
     </row>
     <row r="36" spans="1:22">
@@ -2963,64 +2966,64 @@
         <v>34</v>
       </c>
       <c r="C36">
-        <v>1.192131134109748</v>
+        <v>1.116272838188455</v>
       </c>
       <c r="D36">
-        <v>1.099899253687528</v>
+        <v>1.064582492928152</v>
       </c>
       <c r="E36">
-        <v>0.8388434761054528</v>
+        <v>0.8814961256665129</v>
       </c>
       <c r="F36">
-        <v>1.022607736986721</v>
+        <v>1.012850760090748</v>
       </c>
       <c r="G36">
-        <v>1.192131134109748</v>
+        <v>1.116272838188455</v>
       </c>
       <c r="H36">
-        <v>1.099899253687528</v>
+        <v>1.064582492928152</v>
       </c>
       <c r="I36">
-        <v>0.9147461292367686</v>
+        <v>0.935063312824686</v>
       </c>
       <c r="J36">
-        <v>0.9088194025040345</v>
+        <v>0.9418986654246047</v>
       </c>
       <c r="K36">
-        <v>1.053209667721811</v>
+        <v>1.029826193082157</v>
       </c>
       <c r="L36">
-        <v>1.039517306340483</v>
+        <v>1.02493346001651</v>
       </c>
       <c r="M36">
-        <v>1.192063121634495</v>
+        <v>1.116184637334085</v>
       </c>
       <c r="N36">
-        <v>1.192131134109748</v>
+        <v>1.116272838188455</v>
       </c>
       <c r="O36">
-        <v>0.9693713648964906</v>
+        <v>0.9730393092973324</v>
       </c>
       <c r="P36">
-        <v>0.9307256065460868</v>
+        <v>0.9471734428786303</v>
       </c>
       <c r="Q36">
-        <v>1.04362462130091</v>
+        <v>1.020783818927707</v>
       </c>
       <c r="R36">
-        <v>0.9871168222599006</v>
+        <v>0.9863097928951374</v>
       </c>
       <c r="S36">
-        <v>1.04362462130091</v>
+        <v>1.020783818927707</v>
       </c>
       <c r="T36">
-        <v>1.038370400222362</v>
+        <v>1.018800554218467</v>
       </c>
       <c r="U36">
-        <v>1.06912254699984</v>
+        <v>1.038295011012465</v>
       </c>
       <c r="V36">
-        <v>1.008721763336568</v>
+        <v>1.000865481027728</v>
       </c>
     </row>
     <row r="37" spans="1:22">
@@ -3031,64 +3034,64 @@
         <v>35</v>
       </c>
       <c r="C37">
-        <v>1.115733856303226</v>
+        <v>1.192131134109748</v>
       </c>
       <c r="D37">
-        <v>1.00496233296071</v>
+        <v>1.099899253687528</v>
       </c>
       <c r="E37">
-        <v>0.9320436967517527</v>
+        <v>0.8388434761054528</v>
       </c>
       <c r="F37">
-        <v>0.9942785305771934</v>
+        <v>1.022607736986721</v>
       </c>
       <c r="G37">
-        <v>1.115733856303226</v>
+        <v>1.192131134109748</v>
       </c>
       <c r="H37">
-        <v>1.00496233296071</v>
+        <v>1.099899253687528</v>
       </c>
       <c r="I37">
-        <v>0.9674770054583405</v>
+        <v>0.9147461292367686</v>
       </c>
       <c r="J37">
-        <v>0.9434505546273251</v>
+        <v>0.9088194025040345</v>
       </c>
       <c r="K37">
-        <v>1.030553474713942</v>
+        <v>1.053209667721811</v>
       </c>
       <c r="L37">
-        <v>0.9852945724304925</v>
+        <v>1.039517306340483</v>
       </c>
       <c r="M37">
-        <v>1.115608234823864</v>
+        <v>1.192063121634495</v>
       </c>
       <c r="N37">
-        <v>1.115733856303226</v>
+        <v>1.192131134109748</v>
       </c>
       <c r="O37">
-        <v>0.9685030148562314</v>
+        <v>0.9693713648964906</v>
       </c>
       <c r="P37">
-        <v>0.9631611136644731</v>
+        <v>0.9307256065460868</v>
       </c>
       <c r="Q37">
-        <v>1.017579962005229</v>
+        <v>1.04362462130091</v>
       </c>
       <c r="R37">
-        <v>0.9770948534298854</v>
+        <v>0.9871168222599006</v>
       </c>
       <c r="S37">
-        <v>1.017579962005229</v>
+        <v>1.04362462130091</v>
       </c>
       <c r="T37">
-        <v>1.01175460414822</v>
+        <v>1.038370400222362</v>
       </c>
       <c r="U37">
-        <v>1.032550454579221</v>
+        <v>1.06912254699984</v>
       </c>
       <c r="V37">
-        <v>0.9967242529778728</v>
+        <v>1.008721763336568</v>
       </c>
     </row>
     <row r="38" spans="1:22">
@@ -3099,64 +3102,64 @@
         <v>36</v>
       </c>
       <c r="C38">
-        <v>0.9870124235110087</v>
+        <v>1.115733856303226</v>
       </c>
       <c r="D38">
-        <v>0.989477048088414</v>
+        <v>1.00496233296071</v>
       </c>
       <c r="E38">
-        <v>0.9917487673617505</v>
+        <v>0.9320436967517527</v>
       </c>
       <c r="F38">
-        <v>0.9890543468886465</v>
+        <v>0.9942785305771934</v>
       </c>
       <c r="G38">
-        <v>0.9870124235110087</v>
+        <v>1.115733856303226</v>
       </c>
       <c r="H38">
-        <v>0.989477048088414</v>
+        <v>1.00496233296071</v>
       </c>
       <c r="I38">
-        <v>0.9894388899507195</v>
+        <v>0.9674770054583405</v>
       </c>
       <c r="J38">
-        <v>0.9900447573024362</v>
+        <v>0.9434505546273251</v>
       </c>
       <c r="K38">
-        <v>0.9880547880595739</v>
+        <v>1.030553474713942</v>
       </c>
       <c r="L38">
-        <v>0.9885087787924732</v>
+        <v>0.9852945724304925</v>
       </c>
       <c r="M38">
-        <v>0.9869782865120449</v>
+        <v>1.115608234823864</v>
       </c>
       <c r="N38">
-        <v>0.9870124235110087</v>
+        <v>1.115733856303226</v>
       </c>
       <c r="O38">
-        <v>0.9906129077250823</v>
+        <v>0.9685030148562314</v>
       </c>
       <c r="P38">
-        <v>0.9904015571251985</v>
+        <v>0.9631611136644731</v>
       </c>
       <c r="Q38">
-        <v>0.989412746320391</v>
+        <v>1.017579962005229</v>
       </c>
       <c r="R38">
-        <v>0.9900933874462704</v>
+        <v>0.9770948534298854</v>
       </c>
       <c r="S38">
-        <v>0.989412746320391</v>
+        <v>1.017579962005229</v>
       </c>
       <c r="T38">
-        <v>0.9893231464624549</v>
+        <v>1.01175460414822</v>
       </c>
       <c r="U38">
-        <v>0.9888610018721657</v>
+        <v>1.032550454579221</v>
       </c>
       <c r="V38">
-        <v>0.9891674749943777</v>
+        <v>0.9967242529778728</v>
       </c>
     </row>
     <row r="39" spans="1:22">
@@ -3167,64 +3170,64 @@
         <v>37</v>
       </c>
       <c r="C39">
-        <v>1.135606743132729</v>
+        <v>0.9870124235110087</v>
       </c>
       <c r="D39">
-        <v>1.072543142897245</v>
+        <v>0.989477048088414</v>
       </c>
       <c r="E39">
-        <v>0.8761509172104722</v>
+        <v>0.9917487673617505</v>
       </c>
       <c r="F39">
-        <v>1.01920815546355</v>
+        <v>0.9890543468886465</v>
       </c>
       <c r="G39">
-        <v>1.135606743132729</v>
+        <v>0.9870124235110087</v>
       </c>
       <c r="H39">
-        <v>1.072543142897245</v>
+        <v>0.989477048088414</v>
       </c>
       <c r="I39">
-        <v>0.927290726998107</v>
+        <v>0.9894388899507195</v>
       </c>
       <c r="J39">
-        <v>0.9364503377888191</v>
+        <v>0.9900447573024362</v>
       </c>
       <c r="K39">
-        <v>1.038816286424095</v>
+        <v>0.9880547880595739</v>
       </c>
       <c r="L39">
-        <v>1.029727090180045</v>
+        <v>0.9885087787924732</v>
       </c>
       <c r="M39">
-        <v>1.135473205583231</v>
+        <v>0.9869782865120449</v>
       </c>
       <c r="N39">
-        <v>1.135606743132729</v>
+        <v>0.9870124235110087</v>
       </c>
       <c r="O39">
-        <v>0.9743470300538585</v>
+        <v>0.9906129077250823</v>
       </c>
       <c r="P39">
-        <v>0.947679536337011</v>
+        <v>0.9904015571251985</v>
       </c>
       <c r="Q39">
-        <v>1.028100267746815</v>
+        <v>0.989412746320391</v>
       </c>
       <c r="R39">
-        <v>0.9893007385237556</v>
+        <v>0.9900933874462704</v>
       </c>
       <c r="S39">
-        <v>1.028100267746815</v>
+        <v>0.989412746320391</v>
       </c>
       <c r="T39">
-        <v>1.025877239675999</v>
+        <v>0.9893231464624549</v>
       </c>
       <c r="U39">
-        <v>1.047823140367345</v>
+        <v>0.9888610018721657</v>
       </c>
       <c r="V39">
-        <v>1.004474175011883</v>
+        <v>0.9891674749943777</v>
       </c>
     </row>
     <row r="40" spans="1:22">
@@ -3235,64 +3238,64 @@
         <v>38</v>
       </c>
       <c r="C40">
-        <v>1.22451536901375</v>
+        <v>1.135606743132729</v>
       </c>
       <c r="D40">
-        <v>1.113921437759427</v>
+        <v>1.072543142897245</v>
       </c>
       <c r="E40">
-        <v>0.8324714407516609</v>
+        <v>0.8761509172104722</v>
       </c>
       <c r="F40">
-        <v>1.034891791815824</v>
+        <v>1.01920815546355</v>
       </c>
       <c r="G40">
-        <v>1.22451536901375</v>
+        <v>1.135606743132729</v>
       </c>
       <c r="H40">
-        <v>1.113921437759427</v>
+        <v>1.072543142897245</v>
       </c>
       <c r="I40">
-        <v>0.9045018954514424</v>
+        <v>0.927290726998107</v>
       </c>
       <c r="J40">
-        <v>0.897357639098691</v>
+        <v>0.9364503377888191</v>
       </c>
       <c r="K40">
-        <v>1.067229121958649</v>
+        <v>1.038816286424095</v>
       </c>
       <c r="L40">
-        <v>1.04876983559506</v>
+        <v>1.029727090180045</v>
       </c>
       <c r="M40">
-        <v>1.224367459038167</v>
+        <v>1.135473205583231</v>
       </c>
       <c r="N40">
-        <v>1.22451536901375</v>
+        <v>1.135606743132729</v>
       </c>
       <c r="O40">
-        <v>0.973196439255544</v>
+        <v>0.9743470300538585</v>
       </c>
       <c r="P40">
-        <v>0.9336816162837426</v>
+        <v>0.947679536337011</v>
       </c>
       <c r="Q40">
-        <v>1.056969415841613</v>
+        <v>1.028100267746815</v>
       </c>
       <c r="R40">
-        <v>0.9937615567756374</v>
+        <v>0.9893007385237556</v>
       </c>
       <c r="S40">
-        <v>1.056969415841613</v>
+        <v>1.028100267746815</v>
       </c>
       <c r="T40">
-        <v>1.051450009835166</v>
+        <v>1.025877239675999</v>
       </c>
       <c r="U40">
-        <v>1.086063081670882</v>
+        <v>1.047823140367345</v>
       </c>
       <c r="V40">
-        <v>1.015457316430563</v>
+        <v>1.004474175011883</v>
       </c>
     </row>
     <row r="41" spans="1:22">
@@ -3303,64 +3306,64 @@
         <v>39</v>
       </c>
       <c r="C41">
-        <v>1.107853122178511</v>
+        <v>1.22451536901375</v>
       </c>
       <c r="D41">
-        <v>1.00211066075436</v>
+        <v>1.113921437759427</v>
       </c>
       <c r="E41">
-        <v>0.9339184789679401</v>
+        <v>0.8324714407516609</v>
       </c>
       <c r="F41">
-        <v>0.992604584679621</v>
+        <v>1.034891791815824</v>
       </c>
       <c r="G41">
-        <v>1.107853122178511</v>
+        <v>1.22451536901375</v>
       </c>
       <c r="H41">
-        <v>1.00211066075436</v>
+        <v>1.113921437759427</v>
       </c>
       <c r="I41">
-        <v>0.969606238558462</v>
+        <v>0.9045018954514424</v>
       </c>
       <c r="J41">
-        <v>0.9457910891708303</v>
+        <v>0.897357639098691</v>
       </c>
       <c r="K41">
-        <v>1.026910925102426</v>
+        <v>1.067229121958649</v>
       </c>
       <c r="L41">
-        <v>0.9843058178334778</v>
+        <v>1.04876983559506</v>
       </c>
       <c r="M41">
-        <v>1.107735353369867</v>
+        <v>1.224367459038167</v>
       </c>
       <c r="N41">
-        <v>1.107853122178511</v>
+        <v>1.22451536901375</v>
       </c>
       <c r="O41">
-        <v>0.9680145698611502</v>
+        <v>0.973196439255544</v>
       </c>
       <c r="P41">
-        <v>0.9632615318237805</v>
+        <v>0.9336816162837426</v>
       </c>
       <c r="Q41">
-        <v>1.014627420633604</v>
+        <v>1.056969415841613</v>
       </c>
       <c r="R41">
-        <v>0.9762112414673071</v>
+        <v>0.9937615567756374</v>
       </c>
       <c r="S41">
-        <v>1.014627420633604</v>
+        <v>1.056969415841613</v>
       </c>
       <c r="T41">
-        <v>1.009121711645108</v>
+        <v>1.051450009835166</v>
       </c>
       <c r="U41">
-        <v>1.028867993751789</v>
+        <v>1.086063081670882</v>
       </c>
       <c r="V41">
-        <v>0.9953876146557036</v>
+        <v>1.015457316430563</v>
       </c>
     </row>
     <row r="42" spans="1:22">
@@ -3371,64 +3374,64 @@
         <v>40</v>
       </c>
       <c r="C42">
-        <v>0.9853979705695518</v>
+        <v>1.107853122178511</v>
       </c>
       <c r="D42">
-        <v>0.9889992494827707</v>
+        <v>1.00211066075436</v>
       </c>
       <c r="E42">
-        <v>0.992496025399654</v>
+        <v>0.9339184789679401</v>
       </c>
       <c r="F42">
-        <v>0.9888442130049954</v>
+        <v>0.992604584679621</v>
       </c>
       <c r="G42">
-        <v>0.9853979705695518</v>
+        <v>1.107853122178511</v>
       </c>
       <c r="H42">
-        <v>0.9889992494827707</v>
+        <v>1.00211066075436</v>
       </c>
       <c r="I42">
-        <v>0.9898244006864332</v>
+        <v>0.969606238558462</v>
       </c>
       <c r="J42">
-        <v>0.9905851806404535</v>
+        <v>0.9457910891708303</v>
       </c>
       <c r="K42">
-        <v>0.9875105106425274</v>
+        <v>1.026910925102426</v>
       </c>
       <c r="L42">
-        <v>0.9883672402377599</v>
+        <v>0.9843058178334778</v>
       </c>
       <c r="M42">
-        <v>0.9853649468937258</v>
+        <v>1.107735353369867</v>
       </c>
       <c r="N42">
-        <v>0.9853979705695518</v>
+        <v>1.107853122178511</v>
       </c>
       <c r="O42">
-        <v>0.9907476374412123</v>
+        <v>0.9680145698611502</v>
       </c>
       <c r="P42">
-        <v>0.9906701192023246</v>
+        <v>0.9632615318237805</v>
       </c>
       <c r="Q42">
-        <v>0.9889644151506588</v>
+        <v>1.014627420633604</v>
       </c>
       <c r="R42">
-        <v>0.99011316262914</v>
+        <v>0.9762112414673071</v>
       </c>
       <c r="S42">
-        <v>0.9889644151506589</v>
+        <v>1.014627420633604</v>
       </c>
       <c r="T42">
-        <v>0.988934364614243</v>
+        <v>1.009121711645108</v>
       </c>
       <c r="U42">
-        <v>0.9882270858053047</v>
+        <v>1.028867993751789</v>
       </c>
       <c r="V42">
-        <v>0.9890030988330183</v>
+        <v>0.9953876146557036</v>
       </c>
     </row>
     <row r="43" spans="1:22">
@@ -3439,64 +3442,64 @@
         <v>41</v>
       </c>
       <c r="C43">
-        <v>1.124388595305128</v>
+        <v>0.9853979705695518</v>
       </c>
       <c r="D43">
-        <v>1.067849920805805</v>
+        <v>0.9889992494827707</v>
       </c>
       <c r="E43">
-        <v>0.879172117755088</v>
+        <v>0.992496025399654</v>
       </c>
       <c r="F43">
-        <v>1.015495561659943</v>
+        <v>0.9888442130049954</v>
       </c>
       <c r="G43">
-        <v>1.124388595305128</v>
+        <v>0.9853979705695518</v>
       </c>
       <c r="H43">
-        <v>1.067849920805805</v>
+        <v>0.9889992494827707</v>
       </c>
       <c r="I43">
-        <v>0.9316696502095339</v>
+        <v>0.9898244006864332</v>
       </c>
       <c r="J43">
-        <v>0.939548069001661</v>
+        <v>0.9905851806404535</v>
       </c>
       <c r="K43">
-        <v>1.033504016696691</v>
+        <v>0.9875105106425274</v>
       </c>
       <c r="L43">
-        <v>1.026952857654595</v>
+        <v>0.9883672402377599</v>
       </c>
       <c r="M43">
-        <v>1.12428211885465</v>
+        <v>0.9853649468937258</v>
       </c>
       <c r="N43">
-        <v>1.124388595305128</v>
+        <v>0.9853979705695518</v>
       </c>
       <c r="O43">
-        <v>0.9735110192804466</v>
+        <v>0.9907476374412123</v>
       </c>
       <c r="P43">
-        <v>0.9473338397075155</v>
+        <v>0.9906701192023246</v>
       </c>
       <c r="Q43">
-        <v>1.023803544622007</v>
+        <v>0.9889644151506588</v>
       </c>
       <c r="R43">
-        <v>0.9875058667402787</v>
+        <v>0.99011316262914</v>
       </c>
       <c r="S43">
-        <v>1.023803544622007</v>
+        <v>0.9889644151506589</v>
       </c>
       <c r="T43">
-        <v>1.021726548881491</v>
+        <v>0.988934364614243</v>
       </c>
       <c r="U43">
-        <v>1.042258958166218</v>
+        <v>0.9882270858053047</v>
       </c>
       <c r="V43">
-        <v>1.002322598636056</v>
+        <v>0.9890030988330183</v>
       </c>
     </row>
     <row r="44" spans="1:22">
@@ -3507,64 +3510,64 @@
         <v>42</v>
       </c>
       <c r="C44">
-        <v>1.205694905302835</v>
+        <v>1.124388595305128</v>
       </c>
       <c r="D44">
-        <v>1.105638302020881</v>
+        <v>1.067849920805805</v>
       </c>
       <c r="E44">
-        <v>0.8360796555689315</v>
+        <v>0.879172117755088</v>
       </c>
       <c r="F44">
-        <v>1.027740057804124</v>
+        <v>1.015495561659943</v>
       </c>
       <c r="G44">
-        <v>1.205694905302835</v>
+        <v>1.124388595305128</v>
       </c>
       <c r="H44">
-        <v>1.105638302020881</v>
+        <v>1.067849920805805</v>
       </c>
       <c r="I44">
-        <v>0.9102385456966879</v>
+        <v>0.9316696502095339</v>
       </c>
       <c r="J44">
-        <v>0.9038721453060298</v>
+        <v>0.939548069001661</v>
       </c>
       <c r="K44">
-        <v>1.058956318673371</v>
+        <v>1.033504016696691</v>
       </c>
       <c r="L44">
-        <v>1.043391476087959</v>
+        <v>1.026952857654595</v>
       </c>
       <c r="M44">
-        <v>1.20560059506461</v>
+        <v>1.12428211885465</v>
       </c>
       <c r="N44">
-        <v>1.205694905302835</v>
+        <v>1.124388595305128</v>
       </c>
       <c r="O44">
-        <v>0.970858978794906</v>
+        <v>0.9735110192804466</v>
       </c>
       <c r="P44">
-        <v>0.931909856686528</v>
+        <v>0.9473338397075155</v>
       </c>
       <c r="Q44">
-        <v>1.049137620964215</v>
+        <v>1.023803544622007</v>
       </c>
       <c r="R44">
-        <v>0.9898193384646454</v>
+        <v>0.9875058667402787</v>
       </c>
       <c r="S44">
-        <v>1.049137620964215</v>
+        <v>1.023803544622007</v>
       </c>
       <c r="T44">
-        <v>1.043788230174193</v>
+        <v>1.021726548881491</v>
       </c>
       <c r="U44">
-        <v>1.076169565199921</v>
+        <v>1.042258958166218</v>
       </c>
       <c r="V44">
-        <v>1.011451425807602</v>
+        <v>1.002322598636056</v>
       </c>
     </row>
     <row r="45" spans="1:22">
@@ -3575,64 +3578,64 @@
         <v>43</v>
       </c>
       <c r="C45">
-        <v>1.1006735507243</v>
+        <v>1.205694905302835</v>
       </c>
       <c r="D45">
-        <v>0.9997415420293635</v>
+        <v>1.105638302020881</v>
       </c>
       <c r="E45">
-        <v>0.9356187368858645</v>
+        <v>0.8360796555689315</v>
       </c>
       <c r="F45">
-        <v>0.9911708531984104</v>
+        <v>1.027740057804124</v>
       </c>
       <c r="G45">
-        <v>1.1006735507243</v>
+        <v>1.205694905302835</v>
       </c>
       <c r="H45">
-        <v>0.9997415420293635</v>
+        <v>1.105638302020881</v>
       </c>
       <c r="I45">
-        <v>0.9716684057511652</v>
+        <v>0.9102385456966879</v>
       </c>
       <c r="J45">
-        <v>0.9480211129720673</v>
+        <v>0.9038721453060298</v>
       </c>
       <c r="K45">
-        <v>1.023675415221589</v>
+        <v>1.058956318673371</v>
       </c>
       <c r="L45">
-        <v>0.9834436693664403</v>
+        <v>1.043391476087959</v>
       </c>
       <c r="M45">
-        <v>1.100565731500067</v>
+        <v>1.20560059506461</v>
       </c>
       <c r="N45">
-        <v>1.1006735507243</v>
+        <v>1.205694905302835</v>
       </c>
       <c r="O45">
-        <v>0.967680139457614</v>
+        <v>0.970858978794906</v>
       </c>
       <c r="P45">
-        <v>0.9633947950421374</v>
+        <v>0.931909856686528</v>
       </c>
       <c r="Q45">
-        <v>1.012011276546509</v>
+        <v>1.049137620964215</v>
       </c>
       <c r="R45">
-        <v>0.9755103773712128</v>
+        <v>0.9898193384646454</v>
       </c>
       <c r="S45">
-        <v>1.012011276546509</v>
+        <v>1.049137620964215</v>
       </c>
       <c r="T45">
-        <v>1.006801170709485</v>
+        <v>1.043788230174193</v>
       </c>
       <c r="U45">
-        <v>1.025575646712448</v>
+        <v>1.076169565199921</v>
       </c>
       <c r="V45">
-        <v>0.99425166076865</v>
+        <v>1.011451425807602</v>
       </c>
     </row>
     <row r="46" spans="1:22">
@@ -3643,64 +3646,64 @@
         <v>44</v>
       </c>
       <c r="C46">
-        <v>0.9839750260548833</v>
+        <v>1.1006735507243</v>
       </c>
       <c r="D46">
-        <v>0.9886773575163699</v>
+        <v>0.9997415420293635</v>
       </c>
       <c r="E46">
-        <v>0.9931042776050232</v>
+        <v>0.9356187368858645</v>
       </c>
       <c r="F46">
-        <v>0.9886780466304979</v>
+        <v>0.9911708531984104</v>
       </c>
       <c r="G46">
-        <v>0.9839750260548833</v>
+        <v>1.1006735507243</v>
       </c>
       <c r="H46">
-        <v>0.9886773575163699</v>
+        <v>0.9997415420293635</v>
       </c>
       <c r="I46">
-        <v>0.9901987844714455</v>
+        <v>0.9716684057511652</v>
       </c>
       <c r="J46">
-        <v>0.9910704905352549</v>
+        <v>0.9480211129720673</v>
       </c>
       <c r="K46">
-        <v>0.9870014971324479</v>
+        <v>1.023675415221589</v>
       </c>
       <c r="L46">
-        <v>0.9882263843107998</v>
+        <v>0.9834436693664403</v>
       </c>
       <c r="M46">
-        <v>0.9839428626475207</v>
+        <v>1.100565731500067</v>
       </c>
       <c r="N46">
-        <v>0.9839750260548833</v>
+        <v>1.1006735507243</v>
       </c>
       <c r="O46">
-        <v>0.9908908175606965</v>
+        <v>0.967680139457614</v>
       </c>
       <c r="P46">
-        <v>0.9908911621177605</v>
+        <v>0.9633947950421374</v>
       </c>
       <c r="Q46">
-        <v>0.9885855537254254</v>
+        <v>1.012011276546509</v>
       </c>
       <c r="R46">
-        <v>0.9901532272506303</v>
+        <v>0.9755103773712128</v>
       </c>
       <c r="S46">
-        <v>0.9885855537254254</v>
+        <v>1.012011276546509</v>
       </c>
       <c r="T46">
-        <v>0.9886086769516935</v>
+        <v>1.006801170709485</v>
       </c>
       <c r="U46">
-        <v>0.9876819467723316</v>
+        <v>1.025575646712448</v>
       </c>
       <c r="V46">
-        <v>0.9888664830320902</v>
+        <v>0.99425166076865</v>
       </c>
     </row>
     <row r="47" spans="1:22">
@@ -3711,64 +3714,64 @@
         <v>45</v>
       </c>
       <c r="C47">
-        <v>1.113978793661162</v>
+        <v>0.9839750260548833</v>
       </c>
       <c r="D47">
-        <v>1.063695168511227</v>
+        <v>0.9886773575163699</v>
       </c>
       <c r="E47">
-        <v>0.8821708491558315</v>
+        <v>0.9931042776050232</v>
       </c>
       <c r="F47">
-        <v>1.012108210097766</v>
+        <v>0.9886780466304979</v>
       </c>
       <c r="G47">
-        <v>1.113978793661162</v>
+        <v>0.9839750260548833</v>
       </c>
       <c r="H47">
-        <v>1.063695168511227</v>
+        <v>0.9886773575163699</v>
       </c>
       <c r="I47">
-        <v>0.9360284048652375</v>
+        <v>0.9901987844714455</v>
       </c>
       <c r="J47">
-        <v>0.9425553197668001</v>
+        <v>0.9910704905352549</v>
       </c>
       <c r="K47">
-        <v>1.028800631962474</v>
+        <v>0.9870014971324479</v>
       </c>
       <c r="L47">
-        <v>1.024365383648827</v>
+        <v>0.9882263843107998</v>
       </c>
       <c r="M47">
-        <v>1.113895370740887</v>
+        <v>0.9839428626475207</v>
       </c>
       <c r="N47">
-        <v>1.113978793661162</v>
+        <v>0.9839750260548833</v>
       </c>
       <c r="O47">
-        <v>0.9729330088335291</v>
+        <v>0.9908908175606965</v>
       </c>
       <c r="P47">
-        <v>0.9471395296267989</v>
+        <v>0.9908911621177605</v>
       </c>
       <c r="Q47">
-        <v>1.01994827044274</v>
+        <v>0.9885855537254254</v>
       </c>
       <c r="R47">
-        <v>0.9859914092549414</v>
+        <v>0.9901532272506303</v>
       </c>
       <c r="S47">
-        <v>1.01994827044274</v>
+        <v>0.9885855537254254</v>
       </c>
       <c r="T47">
-        <v>1.017988255356497</v>
+        <v>0.9886086769516935</v>
       </c>
       <c r="U47">
-        <v>1.03718636301743</v>
+        <v>0.9876819467723316</v>
       </c>
       <c r="V47">
-        <v>1.000462845208665</v>
+        <v>0.9888664830320902</v>
       </c>
     </row>
     <row r="48" spans="1:22">
@@ -3779,63 +3782,131 @@
         <v>46</v>
       </c>
       <c r="C48">
+        <v>1.113978793661162</v>
+      </c>
+      <c r="D48">
+        <v>1.063695168511227</v>
+      </c>
+      <c r="E48">
+        <v>0.8821708491558315</v>
+      </c>
+      <c r="F48">
+        <v>1.012108210097766</v>
+      </c>
+      <c r="G48">
+        <v>1.113978793661162</v>
+      </c>
+      <c r="H48">
+        <v>1.063695168511227</v>
+      </c>
+      <c r="I48">
+        <v>0.9360284048652375</v>
+      </c>
+      <c r="J48">
+        <v>0.9425553197668001</v>
+      </c>
+      <c r="K48">
+        <v>1.028800631962474</v>
+      </c>
+      <c r="L48">
+        <v>1.024365383648827</v>
+      </c>
+      <c r="M48">
+        <v>1.113895370740887</v>
+      </c>
+      <c r="N48">
+        <v>1.113978793661162</v>
+      </c>
+      <c r="O48">
+        <v>0.9729330088335291</v>
+      </c>
+      <c r="P48">
+        <v>0.9471395296267989</v>
+      </c>
+      <c r="Q48">
+        <v>1.01994827044274</v>
+      </c>
+      <c r="R48">
+        <v>0.9859914092549414</v>
+      </c>
+      <c r="S48">
+        <v>1.01994827044274</v>
+      </c>
+      <c r="T48">
+        <v>1.017988255356497</v>
+      </c>
+      <c r="U48">
+        <v>1.03718636301743</v>
+      </c>
+      <c r="V48">
+        <v>1.000462845208665</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49">
         <v>1.188317432806978</v>
       </c>
-      <c r="D48">
+      <c r="D49">
         <v>1.098364780638113</v>
       </c>
-      <c r="E48">
+      <c r="E49">
         <v>0.8395878452757417</v>
       </c>
-      <c r="F48">
+      <c r="F49">
         <v>1.021159352670609</v>
       </c>
-      <c r="G48">
+      <c r="G49">
         <v>1.188317432806978</v>
       </c>
-      <c r="H48">
+      <c r="H49">
         <v>1.098364780638113</v>
       </c>
-      <c r="I48">
+      <c r="I49">
         <v>0.9160281033473369</v>
       </c>
-      <c r="J48">
+      <c r="J49">
         <v>0.9101979898270943</v>
       </c>
-      <c r="K48">
+      <c r="K49">
         <v>1.051585135914999</v>
       </c>
-      <c r="L48">
+      <c r="L49">
         <v>1.038440709224399</v>
       </c>
-      <c r="M48">
+      <c r="M49">
         <v>1.188255458275412</v>
       </c>
-      <c r="N48">
+      <c r="N49">
         <v>1.188317432806978</v>
       </c>
-      <c r="O48">
+      <c r="O49">
         <v>0.9689763129569274</v>
       </c>
-      <c r="P48">
+      <c r="P49">
         <v>0.9303735989731754</v>
       </c>
-      <c r="Q48">
+      <c r="Q49">
         <v>1.042090019573611</v>
       </c>
-      <c r="R48">
+      <c r="R49">
         <v>0.9863706595281547</v>
       </c>
-      <c r="S48">
+      <c r="S49">
         <v>1.042090019573611</v>
       </c>
-      <c r="T48">
+      <c r="T49">
         <v>1.03685735284786</v>
       </c>
-      <c r="U48">
+      <c r="U49">
         <v>1.067149368839684</v>
       </c>
-      <c r="V48">
+      <c r="V49">
         <v>1.007960168713159</v>
       </c>
     </row>
